--- a/cins.xlsx
+++ b/cins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Development Current\mca.gov.in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1EA54C-D129-463D-9940-46DB91747175}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FE0B2D-23F3-442B-AAF9-7EF298003F24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{CC963A2A-6510-4EC9-B897-1DB337E1EF91}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="709">
   <si>
     <t>CIN</t>
   </si>
@@ -2155,6 +2155,9 @@
   </si>
   <si>
     <t>AAR-9199</t>
+  </si>
+  <si>
+    <t>U51311DL1991PLC043572</t>
   </si>
 </sst>
 </file>
@@ -2521,9 +2524,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546AC7F4-C61F-4918-BA56-A29E64692DA7}">
-  <dimension ref="A1:E708"/>
+  <dimension ref="A1:E709"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2547,3736 +2552,3743 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>708</v>
       </c>
       <c r="C3" s="4"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C5" s="4"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E61" s="2"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E65" s="2"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E67" s="2"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E68" s="2"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E69" s="2"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E80" s="2"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E81" s="2"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E82" s="2"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E83" s="2"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E84" s="2"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E85" s="2"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E86" s="2"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E87" s="2"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E88" s="2"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E89" s="2"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E90" s="2"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E91" s="2"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E92" s="2"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="2"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E94" s="2"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E95" s="2"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E96" s="2"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E97" s="2"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E98" s="2"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E99" s="2"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E100" s="2"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E101" s="2"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E102" s="2"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E103" s="2"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E104" s="2"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E105" s="2"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E106" s="2"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E107" s="2"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E108" s="2"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E109" s="2"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E110" s="2"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E111" s="2"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E112" s="2"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E113" s="2"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E114" s="2"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E115" s="2"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E116" s="2"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E117" s="2"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E118" s="2"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E119" s="2"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E120" s="2"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E121" s="2"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E122" s="2"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E123" s="2"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E124" s="2"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E125" s="2"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E126" s="2"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E127" s="2"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E128" s="2"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E129" s="2"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E130" s="2"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E131" s="2"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E132" s="2"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E133" s="2"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E134" s="2"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E135" s="2"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E136" s="2"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E137" s="2"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E138" s="2"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E139" s="2"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E140" s="2"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E141" s="2"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E142" s="2"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E143" s="2"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E144" s="2"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E145" s="2"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E146" s="2"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E147" s="2"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E148" s="2"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E149" s="2"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E150" s="2"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E151" s="2"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E152" s="2"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E153" s="2"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E154" s="2"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E155" s="2"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E156" s="2"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E157" s="2"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E158" s="2"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E159" s="2"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E160" s="2"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E161" s="2"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E162" s="2"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E163" s="2"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E164" s="2"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E165" s="2"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E166" s="2"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E167" s="2"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E168" s="2"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E169" s="2"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E170" s="2"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E171" s="2"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E172" s="2"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E173" s="2"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E174" s="2"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E175" s="2"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E176" s="2"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E177" s="2"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E178" s="2"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E179" s="2"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E180" s="2"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E181" s="2"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E182" s="2"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E183" s="2"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E184" s="2"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E185" s="2"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E186" s="2"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E187" s="2"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E188" s="2"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E189" s="2"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E190" s="2"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E191" s="2"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E192" s="2"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E193" s="2"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E194" s="2"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E195" s="2"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E196" s="2"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E197" s="2"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E198" s="2"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E199" s="2"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E200" s="2"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E201" s="2"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E202" s="2"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E203" s="2"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E204" s="2"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E205" s="2"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>205</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="E206" s="2"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" s="2" t="s">
         <v>500</v>
-      </c>
-    </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A502" s="3" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" s="3" t="s">
         <v>503</v>
-      </c>
-    </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" s="2" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A596" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A597" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A598" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A599" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A601" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A602" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A603" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A604" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A608" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A609" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A614" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A618" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A619" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A620" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A621" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A622" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A625" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A626" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A627" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A628" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A629" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A630" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A631" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A633" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A634" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A646" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A647" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A648" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A649" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A650" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A651" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A652" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A654" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A655" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A656" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A657" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A658" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A659" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A661" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A664" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A668" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A669" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A670" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A671" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A672" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A673" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A680" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A682" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A683" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A684" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A685" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A686" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A691" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A692" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A693" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A694" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A695" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A696" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A697" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A698" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A699" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A700" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A701" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A702" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A703" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A704" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A705" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A706" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A707" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A708" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A709" s="2" t="s">
         <v>707</v>
       </c>
     </row>

--- a/cins.xlsx
+++ b/cins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Development Current\mca.gov.in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FE0B2D-23F3-442B-AAF9-7EF298003F24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A87717-FE41-4006-8EC7-395FD3A90715}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{CC963A2A-6510-4EC9-B897-1DB337E1EF91}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="709">
   <si>
     <t>CIN</t>
   </si>
@@ -2524,7 +2524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546AC7F4-C61F-4918-BA56-A29E64692DA7}">
-  <dimension ref="A1:E709"/>
+  <dimension ref="A1:E711"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -2552,3743 +2552,3757 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>708</v>
+        <v>648</v>
       </c>
       <c r="C3" s="4"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>501</v>
       </c>
       <c r="C4" s="4"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>708</v>
       </c>
       <c r="C5" s="4"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C6" s="4"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C7" s="4"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E61" s="2"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E65" s="2"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E67" s="2"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E68" s="2"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E69" s="2"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E80" s="2"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E81" s="2"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E82" s="2"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E83" s="2"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E84" s="2"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E85" s="2"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E86" s="2"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E87" s="2"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E88" s="2"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E89" s="2"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E90" s="2"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E91" s="2"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E92" s="2"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E93" s="2"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E94" s="2"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E95" s="2"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E96" s="2"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E97" s="2"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E98" s="2"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E99" s="2"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E100" s="2"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E101" s="2"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E102" s="2"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E103" s="2"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E104" s="2"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E105" s="2"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E106" s="2"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E107" s="2"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E108" s="2"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E109" s="2"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E110" s="2"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E111" s="2"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E112" s="2"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E113" s="2"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E114" s="2"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E115" s="2"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E116" s="2"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E117" s="2"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E118" s="2"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E119" s="2"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E120" s="2"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E121" s="2"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E122" s="2"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E123" s="2"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E124" s="2"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E125" s="2"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E126" s="2"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E127" s="2"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E128" s="2"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E129" s="2"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E130" s="2"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E131" s="2"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E132" s="2"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E133" s="2"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E134" s="2"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E135" s="2"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E136" s="2"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E137" s="2"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E138" s="2"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E139" s="2"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E140" s="2"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E141" s="2"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E142" s="2"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E143" s="2"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E144" s="2"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E145" s="2"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E146" s="2"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E147" s="2"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E148" s="2"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E149" s="2"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E150" s="2"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E151" s="2"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E152" s="2"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E153" s="2"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E154" s="2"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E155" s="2"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E156" s="2"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E157" s="2"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E158" s="2"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E159" s="2"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E160" s="2"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E161" s="2"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E162" s="2"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E163" s="2"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E164" s="2"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E165" s="2"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E166" s="2"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E167" s="2"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E168" s="2"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E169" s="2"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E170" s="2"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E171" s="2"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E172" s="2"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E173" s="2"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E174" s="2"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E175" s="2"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E176" s="2"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E177" s="2"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E178" s="2"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E179" s="2"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E180" s="2"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E181" s="2"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E182" s="2"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E183" s="2"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E184" s="2"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E185" s="2"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E186" s="2"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E187" s="2"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E188" s="2"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E189" s="2"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E190" s="2"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E191" s="2"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E192" s="2"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E193" s="2"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E194" s="2"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E195" s="2"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E196" s="2"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E197" s="2"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E198" s="2"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E199" s="2"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E200" s="2"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E201" s="2"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E202" s="2"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E203" s="2"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E204" s="2"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E205" s="2"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E206" s="2"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>205</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E207" s="2"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>206</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="E208" s="2"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" s="2" t="s">
         <v>500</v>
-      </c>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" s="3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504" s="3" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" s="3" t="s">
         <v>503</v>
-      </c>
-    </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507" s="2" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A596" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A597" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A598" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A599" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A601" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A602" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A603" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A604" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A608" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A609" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A614" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A618" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A619" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A620" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A621" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A622" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A625" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A626" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A627" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A628" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A629" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A630" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A631" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A633" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A634" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A646" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A647" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A648" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A649" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A650" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A651" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A652" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A654" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A655" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A656" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A657" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A658" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A659" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A661" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A664" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A668" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A669" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A670" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A671" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A672" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A673" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A680" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A682" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A683" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A684" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A685" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A686" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A691" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A692" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A693" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A694" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A695" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A696" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A697" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A698" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A699" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A700" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A701" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A702" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A703" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A704" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A705" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A706" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A707" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A708" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A709" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A710" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A711" s="2" t="s">
         <v>707</v>
       </c>
     </row>

--- a/cins.xlsx
+++ b/cins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Development Current\mca.gov.in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A87717-FE41-4006-8EC7-395FD3A90715}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58721CBF-13BB-4855-B53D-8AE61CB5495B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{CC963A2A-6510-4EC9-B897-1DB337E1EF91}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="501">
   <si>
     <t>CIN</t>
   </si>
@@ -1534,630 +1534,6 @@
   </si>
   <si>
     <t>U93091MH2020PTC337671</t>
-  </si>
-  <si>
-    <t>F06559</t>
-  </si>
-  <si>
-    <t>F06561</t>
-  </si>
-  <si>
-    <t>F06563</t>
-  </si>
-  <si>
-    <t>AAR-8996</t>
-  </si>
-  <si>
-    <t>AAR-8997</t>
-  </si>
-  <si>
-    <t>AAR-8998</t>
-  </si>
-  <si>
-    <t>AAR-8999</t>
-  </si>
-  <si>
-    <t>AAR-9000</t>
-  </si>
-  <si>
-    <t>AAR-9001</t>
-  </si>
-  <si>
-    <t>AAR-9002</t>
-  </si>
-  <si>
-    <t>AAR-9003</t>
-  </si>
-  <si>
-    <t>AAR-9004</t>
-  </si>
-  <si>
-    <t>AAR-9005</t>
-  </si>
-  <si>
-    <t>AAR-9006</t>
-  </si>
-  <si>
-    <t>AAR-9007</t>
-  </si>
-  <si>
-    <t>AAR-9008</t>
-  </si>
-  <si>
-    <t>AAR-9009</t>
-  </si>
-  <si>
-    <t>AAR-9010</t>
-  </si>
-  <si>
-    <t>AAR-9011</t>
-  </si>
-  <si>
-    <t>AAR-9012</t>
-  </si>
-  <si>
-    <t>AAR-9013</t>
-  </si>
-  <si>
-    <t>AAR-9014</t>
-  </si>
-  <si>
-    <t>AAR-9015</t>
-  </si>
-  <si>
-    <t>AAR-9016</t>
-  </si>
-  <si>
-    <t>AAR-9017</t>
-  </si>
-  <si>
-    <t>AAR-9018</t>
-  </si>
-  <si>
-    <t>AAR-9019</t>
-  </si>
-  <si>
-    <t>AAR-9020</t>
-  </si>
-  <si>
-    <t>AAR-9021</t>
-  </si>
-  <si>
-    <t>AAR-9022</t>
-  </si>
-  <si>
-    <t>AAR-9023</t>
-  </si>
-  <si>
-    <t>AAR-9024</t>
-  </si>
-  <si>
-    <t>AAR-9025</t>
-  </si>
-  <si>
-    <t>AAR-9026</t>
-  </si>
-  <si>
-    <t>AAR-9027</t>
-  </si>
-  <si>
-    <t>AAR-9028</t>
-  </si>
-  <si>
-    <t>AAR-9029</t>
-  </si>
-  <si>
-    <t>AAR-9030</t>
-  </si>
-  <si>
-    <t>AAR-9031</t>
-  </si>
-  <si>
-    <t>AAR-9032</t>
-  </si>
-  <si>
-    <t>AAR-9033</t>
-  </si>
-  <si>
-    <t>AAR-9034</t>
-  </si>
-  <si>
-    <t>AAR-9035</t>
-  </si>
-  <si>
-    <t>AAR-9036</t>
-  </si>
-  <si>
-    <t>AAR-9037</t>
-  </si>
-  <si>
-    <t>AAR-9038</t>
-  </si>
-  <si>
-    <t>AAR-9039</t>
-  </si>
-  <si>
-    <t>AAR-9040</t>
-  </si>
-  <si>
-    <t>AAR-9041</t>
-  </si>
-  <si>
-    <t>AAR-9042</t>
-  </si>
-  <si>
-    <t>AAR-9043</t>
-  </si>
-  <si>
-    <t>AAR-9044</t>
-  </si>
-  <si>
-    <t>AAR-9045</t>
-  </si>
-  <si>
-    <t>AAR-9046</t>
-  </si>
-  <si>
-    <t>AAR-9047</t>
-  </si>
-  <si>
-    <t>AAR-9048</t>
-  </si>
-  <si>
-    <t>AAR-9049</t>
-  </si>
-  <si>
-    <t>AAR-9050</t>
-  </si>
-  <si>
-    <t>AAR-9051</t>
-  </si>
-  <si>
-    <t>AAR-9052</t>
-  </si>
-  <si>
-    <t>AAR-9053</t>
-  </si>
-  <si>
-    <t>AAR-9054</t>
-  </si>
-  <si>
-    <t>AAR-9055</t>
-  </si>
-  <si>
-    <t>AAR-9056</t>
-  </si>
-  <si>
-    <t>AAR-9057</t>
-  </si>
-  <si>
-    <t>AAR-9058</t>
-  </si>
-  <si>
-    <t>AAR-9059</t>
-  </si>
-  <si>
-    <t>AAR-9060</t>
-  </si>
-  <si>
-    <t>AAR-9061</t>
-  </si>
-  <si>
-    <t>AAR-9062</t>
-  </si>
-  <si>
-    <t>AAR-9063</t>
-  </si>
-  <si>
-    <t>AAR-9064</t>
-  </si>
-  <si>
-    <t>AAR-9065</t>
-  </si>
-  <si>
-    <t>AAR-9066</t>
-  </si>
-  <si>
-    <t>AAR-9067</t>
-  </si>
-  <si>
-    <t>AAR-9068</t>
-  </si>
-  <si>
-    <t>AAR-9069</t>
-  </si>
-  <si>
-    <t>AAR-9070</t>
-  </si>
-  <si>
-    <t>AAR-9071</t>
-  </si>
-  <si>
-    <t>AAR-9072</t>
-  </si>
-  <si>
-    <t>AAR-9073</t>
-  </si>
-  <si>
-    <t>AAR-9074</t>
-  </si>
-  <si>
-    <t>AAR-9075</t>
-  </si>
-  <si>
-    <t>AAR-9076</t>
-  </si>
-  <si>
-    <t>AAR-9077</t>
-  </si>
-  <si>
-    <t>AAR-9078</t>
-  </si>
-  <si>
-    <t>AAR-9079</t>
-  </si>
-  <si>
-    <t>AAR-9080</t>
-  </si>
-  <si>
-    <t>AAR-9081</t>
-  </si>
-  <si>
-    <t>AAR-9082</t>
-  </si>
-  <si>
-    <t>AAR-9083</t>
-  </si>
-  <si>
-    <t>AAR-9084</t>
-  </si>
-  <si>
-    <t>AAR-9085</t>
-  </si>
-  <si>
-    <t>AAR-9086</t>
-  </si>
-  <si>
-    <t>AAR-9087</t>
-  </si>
-  <si>
-    <t>AAR-9088</t>
-  </si>
-  <si>
-    <t>AAR-9089</t>
-  </si>
-  <si>
-    <t>AAR-9090</t>
-  </si>
-  <si>
-    <t>AAR-9091</t>
-  </si>
-  <si>
-    <t>AAR-9092</t>
-  </si>
-  <si>
-    <t>AAR-9093</t>
-  </si>
-  <si>
-    <t>AAR-9094</t>
-  </si>
-  <si>
-    <t>AAR-9095</t>
-  </si>
-  <si>
-    <t>AAR-9096</t>
-  </si>
-  <si>
-    <t>AAR-9097</t>
-  </si>
-  <si>
-    <t>AAR-9098</t>
-  </si>
-  <si>
-    <t>AAR-9099</t>
-  </si>
-  <si>
-    <t>AAR-9100</t>
-  </si>
-  <si>
-    <t>AAR-9101</t>
-  </si>
-  <si>
-    <t>AAR-9102</t>
-  </si>
-  <si>
-    <t>AAR-9103</t>
-  </si>
-  <si>
-    <t>AAR-9104</t>
-  </si>
-  <si>
-    <t>AAR-9105</t>
-  </si>
-  <si>
-    <t>AAR-9106</t>
-  </si>
-  <si>
-    <t>AAR-9107</t>
-  </si>
-  <si>
-    <t>AAR-9108</t>
-  </si>
-  <si>
-    <t>AAR-9109</t>
-  </si>
-  <si>
-    <t>AAR-9110</t>
-  </si>
-  <si>
-    <t>AAR-9111</t>
-  </si>
-  <si>
-    <t>AAR-9112</t>
-  </si>
-  <si>
-    <t>AAR-9113</t>
-  </si>
-  <si>
-    <t>AAR-9114</t>
-  </si>
-  <si>
-    <t>AAR-9115</t>
-  </si>
-  <si>
-    <t>AAR-9116</t>
-  </si>
-  <si>
-    <t>AAR-9117</t>
-  </si>
-  <si>
-    <t>AAR-9118</t>
-  </si>
-  <si>
-    <t>AAR-9119</t>
-  </si>
-  <si>
-    <t>AAR-9120</t>
-  </si>
-  <si>
-    <t>AAR-9121</t>
-  </si>
-  <si>
-    <t>AAR-9122</t>
-  </si>
-  <si>
-    <t>AAR-9123</t>
-  </si>
-  <si>
-    <t>AAR-9124</t>
-  </si>
-  <si>
-    <t>AAR-9125</t>
-  </si>
-  <si>
-    <t>AAR-9126</t>
-  </si>
-  <si>
-    <t>AAR-9127</t>
-  </si>
-  <si>
-    <t>AAR-9128</t>
-  </si>
-  <si>
-    <t>AAR-9129</t>
-  </si>
-  <si>
-    <t>AAR-9130</t>
-  </si>
-  <si>
-    <t>AAR-9131</t>
-  </si>
-  <si>
-    <t>AAR-9132</t>
-  </si>
-  <si>
-    <t>AAR-9133</t>
-  </si>
-  <si>
-    <t>AAR-9134</t>
-  </si>
-  <si>
-    <t>AAR-9135</t>
-  </si>
-  <si>
-    <t>AAR-9136</t>
-  </si>
-  <si>
-    <t>AAR-9137</t>
-  </si>
-  <si>
-    <t>AAR-9138</t>
-  </si>
-  <si>
-    <t>AAR-9139</t>
-  </si>
-  <si>
-    <t>AAR-9140</t>
-  </si>
-  <si>
-    <t>AAR-9141</t>
-  </si>
-  <si>
-    <t>AAR-9142</t>
-  </si>
-  <si>
-    <t>AAR-9143</t>
-  </si>
-  <si>
-    <t>AAR-9144</t>
-  </si>
-  <si>
-    <t>AAR-9145</t>
-  </si>
-  <si>
-    <t>AAR-9146</t>
-  </si>
-  <si>
-    <t>AAR-9147</t>
-  </si>
-  <si>
-    <t>AAR-9148</t>
-  </si>
-  <si>
-    <t>AAR-9149</t>
-  </si>
-  <si>
-    <t>AAR-9150</t>
-  </si>
-  <si>
-    <t>AAR-9151</t>
-  </si>
-  <si>
-    <t>AAR-9152</t>
-  </si>
-  <si>
-    <t>AAR-9153</t>
-  </si>
-  <si>
-    <t>AAR-9154</t>
-  </si>
-  <si>
-    <t>AAR-9155</t>
-  </si>
-  <si>
-    <t>AAR-9156</t>
-  </si>
-  <si>
-    <t>AAR-9157</t>
-  </si>
-  <si>
-    <t>AAR-9158</t>
-  </si>
-  <si>
-    <t>AAR-9159</t>
-  </si>
-  <si>
-    <t>AAR-9160</t>
-  </si>
-  <si>
-    <t>AAR-9161</t>
-  </si>
-  <si>
-    <t>AAR-9162</t>
-  </si>
-  <si>
-    <t>AAR-9163</t>
-  </si>
-  <si>
-    <t>AAR-9164</t>
-  </si>
-  <si>
-    <t>AAR-9165</t>
-  </si>
-  <si>
-    <t>AAR-9166</t>
-  </si>
-  <si>
-    <t>AAR-9167</t>
-  </si>
-  <si>
-    <t>AAR-9168</t>
-  </si>
-  <si>
-    <t>AAR-9169</t>
-  </si>
-  <si>
-    <t>AAR-9170</t>
-  </si>
-  <si>
-    <t>AAR-9171</t>
-  </si>
-  <si>
-    <t>AAR-9172</t>
-  </si>
-  <si>
-    <t>AAR-9173</t>
-  </si>
-  <si>
-    <t>AAR-9174</t>
-  </si>
-  <si>
-    <t>AAR-9175</t>
-  </si>
-  <si>
-    <t>AAR-9176</t>
-  </si>
-  <si>
-    <t>AAR-9177</t>
-  </si>
-  <si>
-    <t>AAR-9178</t>
-  </si>
-  <si>
-    <t>AAR-9179</t>
-  </si>
-  <si>
-    <t>AAR-9180</t>
-  </si>
-  <si>
-    <t>AAR-9181</t>
-  </si>
-  <si>
-    <t>AAR-9182</t>
-  </si>
-  <si>
-    <t>AAR-9183</t>
-  </si>
-  <si>
-    <t>AAR-9184</t>
-  </si>
-  <si>
-    <t>AAR-9185</t>
-  </si>
-  <si>
-    <t>AAR-9186</t>
-  </si>
-  <si>
-    <t>AAR-9187</t>
-  </si>
-  <si>
-    <t>AAR-9188</t>
-  </si>
-  <si>
-    <t>AAR-9189</t>
-  </si>
-  <si>
-    <t>AAR-9190</t>
-  </si>
-  <si>
-    <t>AAR-9191</t>
-  </si>
-  <si>
-    <t>AAR-9192</t>
-  </si>
-  <si>
-    <t>AAR-9193</t>
-  </si>
-  <si>
-    <t>AAR-9194</t>
-  </si>
-  <si>
-    <t>AAR-9195</t>
-  </si>
-  <si>
-    <t>AAR-9196</t>
-  </si>
-  <si>
-    <t>AAR-9197</t>
-  </si>
-  <si>
-    <t>AAR-9198</t>
-  </si>
-  <si>
-    <t>AAR-9199</t>
-  </si>
-  <si>
-    <t>U51311DL1991PLC043572</t>
   </si>
 </sst>
 </file>
@@ -2524,10 +1900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546AC7F4-C61F-4918-BA56-A29E64692DA7}">
-  <dimension ref="A1:E711"/>
+  <dimension ref="A1:E708"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
+      <selection activeCell="A502" sqref="A502:A736"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2552,3759 +1928,3315 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>648</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="C5" s="4"/>
+        <v>4</v>
+      </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4"/>
+        <v>5</v>
+      </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>6</v>
+      </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E61" s="2"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E65" s="2"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E67" s="2"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E68" s="2"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E69" s="2"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E80" s="2"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E81" s="2"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E82" s="2"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E83" s="2"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E84" s="2"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E85" s="2"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E86" s="2"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E87" s="2"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E88" s="2"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E89" s="2"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E90" s="2"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E91" s="2"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E92" s="2"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E93" s="2"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E94" s="2"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E95" s="2"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E96" s="2"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E97" s="2"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E98" s="2"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E99" s="2"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E100" s="2"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E101" s="2"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E102" s="2"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E103" s="2"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E104" s="2"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E105" s="2"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E106" s="2"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E107" s="2"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E108" s="2"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E109" s="2"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E110" s="2"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E111" s="2"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E112" s="2"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E113" s="2"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E114" s="2"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E115" s="2"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E116" s="2"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E117" s="2"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E118" s="2"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E119" s="2"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E120" s="2"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E121" s="2"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E122" s="2"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E123" s="2"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E124" s="2"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E125" s="2"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E126" s="2"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E127" s="2"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E128" s="2"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E129" s="2"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E130" s="2"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E131" s="2"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E132" s="2"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E133" s="2"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E134" s="2"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E135" s="2"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E136" s="2"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E137" s="2"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E138" s="2"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E139" s="2"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E140" s="2"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E141" s="2"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E142" s="2"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E143" s="2"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E144" s="2"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E145" s="2"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E146" s="2"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E147" s="2"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E148" s="2"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E149" s="2"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E150" s="2"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E151" s="2"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E152" s="2"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E153" s="2"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E154" s="2"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E155" s="2"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E156" s="2"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E157" s="2"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E158" s="2"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E159" s="2"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E160" s="2"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E161" s="2"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E162" s="2"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E163" s="2"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E164" s="2"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E165" s="2"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E166" s="2"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E167" s="2"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E168" s="2"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E169" s="2"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E170" s="2"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E171" s="2"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E172" s="2"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E173" s="2"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E174" s="2"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E175" s="2"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E176" s="2"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E177" s="2"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E178" s="2"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E179" s="2"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E180" s="2"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E181" s="2"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E182" s="2"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E183" s="2"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E184" s="2"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E185" s="2"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E186" s="2"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E187" s="2"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E188" s="2"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E189" s="2"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E190" s="2"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E191" s="2"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E192" s="2"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E193" s="2"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E194" s="2"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E195" s="2"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E196" s="2"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E197" s="2"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E198" s="2"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E199" s="2"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E200" s="2"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E201" s="2"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E202" s="2"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E203" s="2"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E204" s="2"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E205" s="2"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E206" s="2"/>
+        <v>205</v>
+      </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E207" s="2"/>
+        <v>206</v>
+      </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E208" s="2"/>
+        <v>207</v>
+      </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A502" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504" s="2" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" s="3" t="s">
-        <v>501</v>
-      </c>
+      <c r="A505" s="2"/>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506" s="3" t="s">
-        <v>502</v>
-      </c>
+      <c r="A506" s="2"/>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507" s="3" t="s">
-        <v>503</v>
-      </c>
+      <c r="A507" s="2"/>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508" s="2" t="s">
-        <v>504</v>
-      </c>
+      <c r="A508" s="2"/>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509" s="2" t="s">
-        <v>505</v>
-      </c>
+      <c r="A509" s="2"/>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510" s="2" t="s">
-        <v>506</v>
-      </c>
+      <c r="A510" s="2"/>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A511" s="2" t="s">
-        <v>507</v>
-      </c>
+      <c r="A511" s="2"/>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A512" s="2" t="s">
-        <v>508</v>
-      </c>
+      <c r="A512" s="2"/>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" s="2" t="s">
-        <v>509</v>
-      </c>
+      <c r="A513" s="2"/>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" s="2" t="s">
-        <v>510</v>
-      </c>
+      <c r="A514" s="2"/>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" s="2" t="s">
-        <v>511</v>
-      </c>
+      <c r="A515" s="2"/>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" s="2" t="s">
-        <v>512</v>
-      </c>
+      <c r="A516" s="2"/>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" s="2" t="s">
-        <v>513</v>
-      </c>
+      <c r="A517" s="2"/>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" s="2" t="s">
-        <v>514</v>
-      </c>
+      <c r="A518" s="2"/>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A519" s="2" t="s">
-        <v>515</v>
-      </c>
+      <c r="A519" s="2"/>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" s="2" t="s">
-        <v>516</v>
-      </c>
+      <c r="A520" s="2"/>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521" s="2" t="s">
-        <v>517</v>
-      </c>
+      <c r="A521" s="2"/>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522" s="2" t="s">
-        <v>518</v>
-      </c>
+      <c r="A522" s="2"/>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523" s="2" t="s">
-        <v>519</v>
-      </c>
+      <c r="A523" s="2"/>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A524" s="2" t="s">
-        <v>520</v>
-      </c>
+      <c r="A524" s="2"/>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A525" s="2" t="s">
-        <v>521</v>
-      </c>
+      <c r="A525" s="2"/>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A526" s="2" t="s">
-        <v>522</v>
-      </c>
+      <c r="A526" s="2"/>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A527" s="2" t="s">
-        <v>523</v>
-      </c>
+      <c r="A527" s="2"/>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A528" s="2" t="s">
-        <v>524</v>
-      </c>
+      <c r="A528" s="2"/>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A529" s="2" t="s">
-        <v>525</v>
-      </c>
+      <c r="A529" s="2"/>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A530" s="2" t="s">
-        <v>526</v>
-      </c>
+      <c r="A530" s="2"/>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A531" s="2" t="s">
-        <v>527</v>
-      </c>
+      <c r="A531" s="2"/>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A532" s="2" t="s">
-        <v>528</v>
-      </c>
+      <c r="A532" s="2"/>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A533" s="2" t="s">
-        <v>529</v>
-      </c>
+      <c r="A533" s="2"/>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A534" s="2" t="s">
-        <v>530</v>
-      </c>
+      <c r="A534" s="2"/>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A535" s="2" t="s">
-        <v>531</v>
-      </c>
+      <c r="A535" s="2"/>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A536" s="2" t="s">
-        <v>532</v>
-      </c>
+      <c r="A536" s="2"/>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A537" s="2" t="s">
-        <v>533</v>
-      </c>
+      <c r="A537" s="2"/>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A538" s="2" t="s">
-        <v>534</v>
-      </c>
+      <c r="A538" s="2"/>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A539" s="2" t="s">
-        <v>535</v>
-      </c>
+      <c r="A539" s="2"/>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A540" s="2" t="s">
-        <v>536</v>
-      </c>
+      <c r="A540" s="2"/>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A541" s="2" t="s">
-        <v>537</v>
-      </c>
+      <c r="A541" s="2"/>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A542" s="2" t="s">
-        <v>538</v>
-      </c>
+      <c r="A542" s="2"/>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A543" s="2" t="s">
-        <v>539</v>
-      </c>
+      <c r="A543" s="2"/>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A544" s="2" t="s">
-        <v>540</v>
-      </c>
+      <c r="A544" s="2"/>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A545" s="2" t="s">
-        <v>541</v>
-      </c>
+      <c r="A545" s="2"/>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A546" s="2" t="s">
-        <v>542</v>
-      </c>
+      <c r="A546" s="2"/>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A547" s="2" t="s">
-        <v>543</v>
-      </c>
+      <c r="A547" s="2"/>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A548" s="2" t="s">
-        <v>544</v>
-      </c>
+      <c r="A548" s="2"/>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A549" s="2" t="s">
-        <v>545</v>
-      </c>
+      <c r="A549" s="2"/>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A550" s="2" t="s">
-        <v>546</v>
-      </c>
+      <c r="A550" s="2"/>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A551" s="2" t="s">
-        <v>547</v>
-      </c>
+      <c r="A551" s="2"/>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A552" s="2" t="s">
-        <v>548</v>
-      </c>
+      <c r="A552" s="2"/>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A553" s="2" t="s">
-        <v>549</v>
-      </c>
+      <c r="A553" s="2"/>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A554" s="2" t="s">
-        <v>550</v>
-      </c>
+      <c r="A554" s="2"/>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A555" s="2" t="s">
-        <v>551</v>
-      </c>
+      <c r="A555" s="2"/>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A556" s="2" t="s">
-        <v>552</v>
-      </c>
+      <c r="A556" s="2"/>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A557" s="2" t="s">
-        <v>553</v>
-      </c>
+      <c r="A557" s="2"/>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A558" s="2" t="s">
-        <v>554</v>
-      </c>
+      <c r="A558" s="2"/>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A559" s="2" t="s">
-        <v>555</v>
-      </c>
+      <c r="A559" s="2"/>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A560" s="2" t="s">
-        <v>556</v>
-      </c>
+      <c r="A560" s="2"/>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A561" s="2" t="s">
-        <v>557</v>
-      </c>
+      <c r="A561" s="2"/>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A562" s="2" t="s">
-        <v>558</v>
-      </c>
+      <c r="A562" s="2"/>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A563" s="2" t="s">
-        <v>559</v>
-      </c>
+      <c r="A563" s="2"/>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A564" s="2" t="s">
-        <v>560</v>
-      </c>
+      <c r="A564" s="2"/>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A565" s="2" t="s">
-        <v>561</v>
-      </c>
+      <c r="A565" s="2"/>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A566" s="2" t="s">
-        <v>562</v>
-      </c>
+      <c r="A566" s="2"/>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A567" s="2" t="s">
-        <v>563</v>
-      </c>
+      <c r="A567" s="2"/>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A568" s="2" t="s">
-        <v>564</v>
-      </c>
+      <c r="A568" s="2"/>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A569" s="2" t="s">
-        <v>565</v>
-      </c>
+      <c r="A569" s="2"/>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A570" s="2" t="s">
-        <v>566</v>
-      </c>
+      <c r="A570" s="2"/>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A571" s="2" t="s">
-        <v>567</v>
-      </c>
+      <c r="A571" s="2"/>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A572" s="2" t="s">
-        <v>568</v>
-      </c>
+      <c r="A572" s="2"/>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A573" s="2" t="s">
-        <v>569</v>
-      </c>
+      <c r="A573" s="2"/>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A574" s="2" t="s">
-        <v>570</v>
-      </c>
+      <c r="A574" s="2"/>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A575" s="2" t="s">
-        <v>571</v>
-      </c>
+      <c r="A575" s="2"/>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A576" s="2" t="s">
-        <v>572</v>
-      </c>
+      <c r="A576" s="2"/>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A577" s="2" t="s">
-        <v>573</v>
-      </c>
+      <c r="A577" s="2"/>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A578" s="2" t="s">
-        <v>574</v>
-      </c>
+      <c r="A578" s="2"/>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A579" s="2" t="s">
-        <v>575</v>
-      </c>
+      <c r="A579" s="2"/>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A580" s="2" t="s">
-        <v>576</v>
-      </c>
+      <c r="A580" s="2"/>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A581" s="2" t="s">
-        <v>577</v>
-      </c>
+      <c r="A581" s="2"/>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A582" s="2" t="s">
-        <v>578</v>
-      </c>
+      <c r="A582" s="2"/>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A583" s="2" t="s">
-        <v>579</v>
-      </c>
+      <c r="A583" s="2"/>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A584" s="2" t="s">
-        <v>580</v>
-      </c>
+      <c r="A584" s="2"/>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A585" s="2" t="s">
-        <v>581</v>
-      </c>
+      <c r="A585" s="2"/>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A586" s="2" t="s">
-        <v>582</v>
-      </c>
+      <c r="A586" s="2"/>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A587" s="2" t="s">
-        <v>583</v>
-      </c>
+      <c r="A587" s="2"/>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A588" s="2" t="s">
-        <v>584</v>
-      </c>
+      <c r="A588" s="2"/>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A589" s="2" t="s">
-        <v>585</v>
-      </c>
+      <c r="A589" s="2"/>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A590" s="2" t="s">
-        <v>586</v>
-      </c>
+      <c r="A590" s="2"/>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A591" s="2" t="s">
-        <v>587</v>
-      </c>
+      <c r="A591" s="2"/>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A592" s="2" t="s">
-        <v>588</v>
-      </c>
+      <c r="A592" s="2"/>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A593" s="2" t="s">
-        <v>589</v>
-      </c>
+      <c r="A593" s="2"/>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A594" s="2" t="s">
-        <v>590</v>
-      </c>
+      <c r="A594" s="2"/>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A595" s="2" t="s">
-        <v>591</v>
-      </c>
+      <c r="A595" s="2"/>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A596" s="2" t="s">
-        <v>592</v>
-      </c>
+      <c r="A596" s="2"/>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A597" s="2" t="s">
-        <v>593</v>
-      </c>
+      <c r="A597" s="2"/>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A598" s="2" t="s">
-        <v>594</v>
-      </c>
+      <c r="A598" s="2"/>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A599" s="2" t="s">
-        <v>595</v>
-      </c>
+      <c r="A599" s="2"/>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A600" s="2" t="s">
-        <v>596</v>
-      </c>
+      <c r="A600" s="2"/>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A601" s="2" t="s">
-        <v>597</v>
-      </c>
+      <c r="A601" s="2"/>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A602" s="2" t="s">
-        <v>598</v>
-      </c>
+      <c r="A602" s="2"/>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A603" s="2" t="s">
-        <v>599</v>
-      </c>
+      <c r="A603" s="2"/>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A604" s="2" t="s">
-        <v>600</v>
-      </c>
+      <c r="A604" s="2"/>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A605" s="2" t="s">
-        <v>601</v>
-      </c>
+      <c r="A605" s="2"/>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A606" s="2" t="s">
-        <v>602</v>
-      </c>
+      <c r="A606" s="2"/>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A607" s="2" t="s">
-        <v>603</v>
-      </c>
+      <c r="A607" s="2"/>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A608" s="2" t="s">
-        <v>604</v>
-      </c>
+      <c r="A608" s="2"/>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A609" s="2" t="s">
-        <v>605</v>
-      </c>
+      <c r="A609" s="2"/>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A610" s="2" t="s">
-        <v>606</v>
-      </c>
+      <c r="A610" s="2"/>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A611" s="2" t="s">
-        <v>607</v>
-      </c>
+      <c r="A611" s="2"/>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A612" s="2" t="s">
-        <v>608</v>
-      </c>
+      <c r="A612" s="2"/>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A613" s="2" t="s">
-        <v>609</v>
-      </c>
+      <c r="A613" s="2"/>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A614" s="2" t="s">
-        <v>610</v>
-      </c>
+      <c r="A614" s="2"/>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A615" s="2" t="s">
-        <v>611</v>
-      </c>
+      <c r="A615" s="2"/>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A616" s="2" t="s">
-        <v>612</v>
-      </c>
+      <c r="A616" s="2"/>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A617" s="2" t="s">
-        <v>613</v>
-      </c>
+      <c r="A617" s="2"/>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A618" s="2" t="s">
-        <v>614</v>
-      </c>
+      <c r="A618" s="2"/>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A619" s="2" t="s">
-        <v>615</v>
-      </c>
+      <c r="A619" s="2"/>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A620" s="2" t="s">
-        <v>616</v>
-      </c>
+      <c r="A620" s="2"/>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A621" s="2" t="s">
-        <v>617</v>
-      </c>
+      <c r="A621" s="2"/>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A622" s="2" t="s">
-        <v>618</v>
-      </c>
+      <c r="A622" s="2"/>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A623" s="2" t="s">
-        <v>619</v>
-      </c>
+      <c r="A623" s="2"/>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A624" s="2" t="s">
-        <v>620</v>
-      </c>
+      <c r="A624" s="2"/>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A625" s="2" t="s">
-        <v>621</v>
-      </c>
+      <c r="A625" s="2"/>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A626" s="2" t="s">
-        <v>622</v>
-      </c>
+      <c r="A626" s="2"/>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A627" s="2" t="s">
-        <v>623</v>
-      </c>
+      <c r="A627" s="2"/>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A628" s="2" t="s">
-        <v>624</v>
-      </c>
+      <c r="A628" s="2"/>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A629" s="2" t="s">
-        <v>625</v>
-      </c>
+      <c r="A629" s="2"/>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A630" s="2" t="s">
-        <v>626</v>
-      </c>
+      <c r="A630" s="2"/>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A631" s="2" t="s">
-        <v>627</v>
-      </c>
+      <c r="A631" s="2"/>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A632" s="2" t="s">
-        <v>628</v>
-      </c>
+      <c r="A632" s="2"/>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A633" s="2" t="s">
-        <v>629</v>
-      </c>
+      <c r="A633" s="2"/>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A634" s="2" t="s">
-        <v>630</v>
-      </c>
+      <c r="A634" s="2"/>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A635" s="2" t="s">
-        <v>631</v>
-      </c>
+      <c r="A635" s="2"/>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A636" s="2" t="s">
-        <v>632</v>
-      </c>
+      <c r="A636" s="2"/>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A637" s="2" t="s">
-        <v>633</v>
-      </c>
+      <c r="A637" s="2"/>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A638" s="2" t="s">
-        <v>634</v>
-      </c>
+      <c r="A638" s="2"/>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A639" s="2" t="s">
-        <v>635</v>
-      </c>
+      <c r="A639" s="2"/>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A640" s="2" t="s">
-        <v>636</v>
-      </c>
+      <c r="A640" s="2"/>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A641" s="2" t="s">
-        <v>637</v>
-      </c>
+      <c r="A641" s="2"/>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A642" s="2" t="s">
-        <v>638</v>
-      </c>
+      <c r="A642" s="2"/>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A643" s="2" t="s">
-        <v>639</v>
-      </c>
+      <c r="A643" s="2"/>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A644" s="2" t="s">
-        <v>640</v>
-      </c>
+      <c r="A644" s="2"/>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A645" s="2" t="s">
-        <v>641</v>
-      </c>
+      <c r="A645" s="2"/>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A646" s="2" t="s">
-        <v>642</v>
-      </c>
+      <c r="A646" s="2"/>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A647" s="2" t="s">
-        <v>643</v>
-      </c>
+      <c r="A647" s="2"/>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A648" s="2" t="s">
-        <v>644</v>
-      </c>
+      <c r="A648" s="2"/>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A649" s="2" t="s">
-        <v>645</v>
-      </c>
+      <c r="A649" s="2"/>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A650" s="2" t="s">
-        <v>646</v>
-      </c>
+      <c r="A650" s="2"/>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A651" s="2" t="s">
-        <v>647</v>
-      </c>
+      <c r="A651" s="2"/>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A652" s="2" t="s">
-        <v>648</v>
-      </c>
+      <c r="A652" s="2"/>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A653" s="2" t="s">
-        <v>649</v>
-      </c>
+      <c r="A653" s="2"/>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A654" s="2" t="s">
-        <v>650</v>
-      </c>
+      <c r="A654" s="2"/>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A655" s="2" t="s">
-        <v>651</v>
-      </c>
+      <c r="A655" s="2"/>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A656" s="2" t="s">
-        <v>652</v>
-      </c>
+      <c r="A656" s="2"/>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A657" s="2" t="s">
-        <v>653</v>
-      </c>
+      <c r="A657" s="2"/>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A658" s="2" t="s">
-        <v>654</v>
-      </c>
+      <c r="A658" s="2"/>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A659" s="2" t="s">
-        <v>655</v>
-      </c>
+      <c r="A659" s="2"/>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A660" s="2" t="s">
-        <v>656</v>
-      </c>
+      <c r="A660" s="2"/>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A661" s="2" t="s">
-        <v>657</v>
-      </c>
+      <c r="A661" s="2"/>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A662" s="2" t="s">
-        <v>658</v>
-      </c>
+      <c r="A662" s="2"/>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A663" s="2" t="s">
-        <v>659</v>
-      </c>
+      <c r="A663" s="2"/>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A664" s="2" t="s">
-        <v>660</v>
-      </c>
+      <c r="A664" s="2"/>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A665" s="2" t="s">
-        <v>661</v>
-      </c>
+      <c r="A665" s="2"/>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A666" s="2" t="s">
-        <v>662</v>
-      </c>
+      <c r="A666" s="2"/>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A667" s="2" t="s">
-        <v>663</v>
-      </c>
+      <c r="A667" s="2"/>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A668" s="2" t="s">
-        <v>664</v>
-      </c>
+      <c r="A668" s="2"/>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A669" s="2" t="s">
-        <v>665</v>
-      </c>
+      <c r="A669" s="2"/>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A670" s="2" t="s">
-        <v>666</v>
-      </c>
+      <c r="A670" s="2"/>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A671" s="2" t="s">
-        <v>667</v>
-      </c>
+      <c r="A671" s="2"/>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A672" s="2" t="s">
-        <v>668</v>
-      </c>
+      <c r="A672" s="2"/>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A673" s="2" t="s">
-        <v>669</v>
-      </c>
+      <c r="A673" s="2"/>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A674" s="2" t="s">
-        <v>670</v>
-      </c>
+      <c r="A674" s="2"/>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A675" s="2" t="s">
-        <v>671</v>
-      </c>
+      <c r="A675" s="2"/>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A676" s="2" t="s">
-        <v>672</v>
-      </c>
+      <c r="A676" s="2"/>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A677" s="2" t="s">
-        <v>673</v>
-      </c>
+      <c r="A677" s="2"/>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A678" s="2" t="s">
-        <v>674</v>
-      </c>
+      <c r="A678" s="2"/>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A679" s="2" t="s">
-        <v>675</v>
-      </c>
+      <c r="A679" s="2"/>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A680" s="2" t="s">
-        <v>676</v>
-      </c>
+      <c r="A680" s="2"/>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A681" s="2" t="s">
-        <v>677</v>
-      </c>
+      <c r="A681" s="2"/>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A682" s="2" t="s">
-        <v>678</v>
-      </c>
+      <c r="A682" s="2"/>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A683" s="2" t="s">
-        <v>679</v>
-      </c>
+      <c r="A683" s="2"/>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A684" s="2" t="s">
-        <v>680</v>
-      </c>
+      <c r="A684" s="2"/>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A685" s="2" t="s">
-        <v>681</v>
-      </c>
+      <c r="A685" s="2"/>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A686" s="2" t="s">
-        <v>682</v>
-      </c>
+      <c r="A686" s="2"/>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A687" s="2" t="s">
-        <v>683</v>
-      </c>
+      <c r="A687" s="2"/>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A688" s="2" t="s">
-        <v>684</v>
-      </c>
+      <c r="A688" s="2"/>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A689" s="2" t="s">
-        <v>685</v>
-      </c>
+      <c r="A689" s="2"/>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A690" s="2" t="s">
-        <v>686</v>
-      </c>
+      <c r="A690" s="2"/>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A691" s="2" t="s">
-        <v>687</v>
-      </c>
+      <c r="A691" s="2"/>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A692" s="2" t="s">
-        <v>688</v>
-      </c>
+      <c r="A692" s="2"/>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A693" s="2" t="s">
-        <v>689</v>
-      </c>
+      <c r="A693" s="2"/>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A694" s="2" t="s">
-        <v>690</v>
-      </c>
+      <c r="A694" s="2"/>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A695" s="2" t="s">
-        <v>691</v>
-      </c>
+      <c r="A695" s="2"/>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A696" s="2" t="s">
-        <v>692</v>
-      </c>
+      <c r="A696" s="2"/>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A697" s="2" t="s">
-        <v>693</v>
-      </c>
+      <c r="A697" s="2"/>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A698" s="2" t="s">
-        <v>694</v>
-      </c>
+      <c r="A698" s="2"/>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A699" s="2" t="s">
-        <v>695</v>
-      </c>
+      <c r="A699" s="2"/>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A700" s="2" t="s">
-        <v>696</v>
-      </c>
+      <c r="A700" s="2"/>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A701" s="2" t="s">
-        <v>697</v>
-      </c>
+      <c r="A701" s="2"/>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A702" s="2" t="s">
-        <v>698</v>
-      </c>
+      <c r="A702" s="2"/>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A703" s="2" t="s">
-        <v>699</v>
-      </c>
+      <c r="A703" s="2"/>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A704" s="2" t="s">
-        <v>700</v>
-      </c>
+      <c r="A704" s="2"/>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A705" s="2" t="s">
-        <v>701</v>
-      </c>
+      <c r="A705" s="2"/>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A706" s="2" t="s">
-        <v>702</v>
-      </c>
+      <c r="A706" s="2"/>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A707" s="2" t="s">
-        <v>703</v>
-      </c>
+      <c r="A707" s="2"/>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A708" s="2" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A709" s="2" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A710" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A711" s="2" t="s">
-        <v>707</v>
-      </c>
+      <c r="A708" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cins.xlsx
+++ b/cins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Development Current\mca.gov.in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58721CBF-13BB-4855-B53D-8AE61CB5495B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E906DB-27CA-4C01-8E26-CFBDC6BB9898}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{CC963A2A-6510-4EC9-B897-1DB337E1EF91}"/>
   </bookViews>
@@ -1900,10 +1900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546AC7F4-C61F-4918-BA56-A29E64692DA7}">
-  <dimension ref="A1:E708"/>
+  <dimension ref="A1:E501"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
-      <selection activeCell="A502" sqref="A502:A736"/>
+      <selection activeCell="D498" sqref="D498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4626,618 +4626,6 @@
         <v>500</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" s="2"/>
-    </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506" s="2"/>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507" s="2"/>
-    </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508" s="2"/>
-    </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509" s="2"/>
-    </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510" s="2"/>
-    </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A511" s="2"/>
-    </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A512" s="2"/>
-    </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" s="2"/>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" s="2"/>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" s="2"/>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" s="2"/>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" s="2"/>
-    </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" s="2"/>
-    </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A519" s="2"/>
-    </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" s="2"/>
-    </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521" s="2"/>
-    </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522" s="2"/>
-    </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523" s="2"/>
-    </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A524" s="2"/>
-    </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A525" s="2"/>
-    </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A526" s="2"/>
-    </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A527" s="2"/>
-    </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A528" s="2"/>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A529" s="2"/>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A530" s="2"/>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A531" s="2"/>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A532" s="2"/>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A533" s="2"/>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A534" s="2"/>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A535" s="2"/>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A536" s="2"/>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A537" s="2"/>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A538" s="2"/>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A539" s="2"/>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A540" s="2"/>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A541" s="2"/>
-    </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A542" s="2"/>
-    </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A543" s="2"/>
-    </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A544" s="2"/>
-    </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A545" s="2"/>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A546" s="2"/>
-    </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A547" s="2"/>
-    </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A548" s="2"/>
-    </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A549" s="2"/>
-    </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A550" s="2"/>
-    </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A551" s="2"/>
-    </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A552" s="2"/>
-    </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A553" s="2"/>
-    </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A554" s="2"/>
-    </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A555" s="2"/>
-    </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A556" s="2"/>
-    </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A557" s="2"/>
-    </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A558" s="2"/>
-    </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A559" s="2"/>
-    </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A560" s="2"/>
-    </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A561" s="2"/>
-    </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A562" s="2"/>
-    </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A563" s="2"/>
-    </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A564" s="2"/>
-    </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A565" s="2"/>
-    </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A566" s="2"/>
-    </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A567" s="2"/>
-    </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A568" s="2"/>
-    </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A569" s="2"/>
-    </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A570" s="2"/>
-    </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A571" s="2"/>
-    </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A572" s="2"/>
-    </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A573" s="2"/>
-    </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A574" s="2"/>
-    </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A575" s="2"/>
-    </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A576" s="2"/>
-    </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A577" s="2"/>
-    </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A578" s="2"/>
-    </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A579" s="2"/>
-    </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A580" s="2"/>
-    </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A581" s="2"/>
-    </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A582" s="2"/>
-    </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A583" s="2"/>
-    </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A584" s="2"/>
-    </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A585" s="2"/>
-    </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A586" s="2"/>
-    </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A587" s="2"/>
-    </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A588" s="2"/>
-    </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A589" s="2"/>
-    </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A590" s="2"/>
-    </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A591" s="2"/>
-    </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A592" s="2"/>
-    </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A593" s="2"/>
-    </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A594" s="2"/>
-    </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A595" s="2"/>
-    </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A596" s="2"/>
-    </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A597" s="2"/>
-    </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A598" s="2"/>
-    </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A599" s="2"/>
-    </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A600" s="2"/>
-    </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A601" s="2"/>
-    </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A602" s="2"/>
-    </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A603" s="2"/>
-    </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A604" s="2"/>
-    </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A605" s="2"/>
-    </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A606" s="2"/>
-    </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A607" s="2"/>
-    </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A608" s="2"/>
-    </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A609" s="2"/>
-    </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A610" s="2"/>
-    </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A611" s="2"/>
-    </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A612" s="2"/>
-    </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A613" s="2"/>
-    </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A614" s="2"/>
-    </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A615" s="2"/>
-    </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A616" s="2"/>
-    </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A617" s="2"/>
-    </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A618" s="2"/>
-    </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A619" s="2"/>
-    </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A620" s="2"/>
-    </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A621" s="2"/>
-    </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A622" s="2"/>
-    </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A623" s="2"/>
-    </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A624" s="2"/>
-    </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A625" s="2"/>
-    </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A626" s="2"/>
-    </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A627" s="2"/>
-    </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A628" s="2"/>
-    </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A629" s="2"/>
-    </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A630" s="2"/>
-    </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A631" s="2"/>
-    </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A632" s="2"/>
-    </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A633" s="2"/>
-    </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A634" s="2"/>
-    </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A635" s="2"/>
-    </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A636" s="2"/>
-    </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A637" s="2"/>
-    </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A638" s="2"/>
-    </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A639" s="2"/>
-    </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A640" s="2"/>
-    </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A641" s="2"/>
-    </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A642" s="2"/>
-    </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A643" s="2"/>
-    </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A644" s="2"/>
-    </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A645" s="2"/>
-    </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A646" s="2"/>
-    </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A647" s="2"/>
-    </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A648" s="2"/>
-    </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A649" s="2"/>
-    </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A650" s="2"/>
-    </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A651" s="2"/>
-    </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A652" s="2"/>
-    </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A653" s="2"/>
-    </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A654" s="2"/>
-    </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A655" s="2"/>
-    </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A656" s="2"/>
-    </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A657" s="2"/>
-    </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A658" s="2"/>
-    </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A659" s="2"/>
-    </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A660" s="2"/>
-    </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A661" s="2"/>
-    </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A662" s="2"/>
-    </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A663" s="2"/>
-    </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A664" s="2"/>
-    </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A665" s="2"/>
-    </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A666" s="2"/>
-    </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A667" s="2"/>
-    </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A668" s="2"/>
-    </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A669" s="2"/>
-    </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A670" s="2"/>
-    </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A671" s="2"/>
-    </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A672" s="2"/>
-    </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A673" s="2"/>
-    </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A674" s="2"/>
-    </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A675" s="2"/>
-    </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A676" s="2"/>
-    </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A677" s="2"/>
-    </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A678" s="2"/>
-    </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A679" s="2"/>
-    </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A680" s="2"/>
-    </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A681" s="2"/>
-    </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A682" s="2"/>
-    </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A683" s="2"/>
-    </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A684" s="2"/>
-    </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A685" s="2"/>
-    </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A686" s="2"/>
-    </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A687" s="2"/>
-    </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A688" s="2"/>
-    </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A689" s="2"/>
-    </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A690" s="2"/>
-    </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A691" s="2"/>
-    </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A692" s="2"/>
-    </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A693" s="2"/>
-    </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A694" s="2"/>
-    </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A695" s="2"/>
-    </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A696" s="2"/>
-    </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A697" s="2"/>
-    </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A698" s="2"/>
-    </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A699" s="2"/>
-    </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A700" s="2"/>
-    </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A701" s="2"/>
-    </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A702" s="2"/>
-    </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A703" s="2"/>
-    </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A704" s="2"/>
-    </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A705" s="2"/>
-    </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A706" s="2"/>
-    </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A707" s="2"/>
-    </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A708" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cins.xlsx
+++ b/cins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Development Current\mca.gov.in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9C51EA-F1EB-471F-A024-EE2C2844C141}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C2678C-AA74-4479-9A3B-B75DF625403F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{CC963A2A-6510-4EC9-B897-1DB337E1EF91}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="708">
   <si>
     <t>CIN</t>
   </si>
@@ -94,6 +94,2067 @@
   </si>
   <si>
     <t>AAR-8996</t>
+  </si>
+  <si>
+    <t>U01100AP2020PTC114164</t>
+  </si>
+  <si>
+    <t>U01100BR2020PTC045478</t>
+  </si>
+  <si>
+    <t>U01100GJ2020PTC112682</t>
+  </si>
+  <si>
+    <t>U01100JK2020PTC011372</t>
+  </si>
+  <si>
+    <t>U01100MH2020PTC337624</t>
+  </si>
+  <si>
+    <t>U01100MH2020PTC337631</t>
+  </si>
+  <si>
+    <t>U01100MH2020PTC337633</t>
+  </si>
+  <si>
+    <t>U01100PN2020PTC189835</t>
+  </si>
+  <si>
+    <t>U01100PN2020PTC189849</t>
+  </si>
+  <si>
+    <t>U01100TG2020PTC139204</t>
+  </si>
+  <si>
+    <t>U01100TN2020PTC134408</t>
+  </si>
+  <si>
+    <t>U01100TR2020PTC013763</t>
+  </si>
+  <si>
+    <t>U01100UP2020PTC127022</t>
+  </si>
+  <si>
+    <t>U01100WB2020PTC236455</t>
+  </si>
+  <si>
+    <t>U01110MP2020PTC050954</t>
+  </si>
+  <si>
+    <t>U01110OR2020PTC032700</t>
+  </si>
+  <si>
+    <t>U01110UP2020PTC126994</t>
+  </si>
+  <si>
+    <t>U01112AS2020PTC019916</t>
+  </si>
+  <si>
+    <t>U01114WB2020PTC236441</t>
+  </si>
+  <si>
+    <t>U01220AP2020PTC114162</t>
+  </si>
+  <si>
+    <t>U01400PN2020PTC189837</t>
+  </si>
+  <si>
+    <t>U01400UP2020PTC127003</t>
+  </si>
+  <si>
+    <t>U01404BR2020PTC045467</t>
+  </si>
+  <si>
+    <t>U01409HR2020PTC085381</t>
+  </si>
+  <si>
+    <t>U01409TN2020PTC134427</t>
+  </si>
+  <si>
+    <t>U01820MH2020PTC337625</t>
+  </si>
+  <si>
+    <t>U02005MH2020PTC337672</t>
+  </si>
+  <si>
+    <t>U05000BR2020PTC045480</t>
+  </si>
+  <si>
+    <t>U10102JH2020PTC014084</t>
+  </si>
+  <si>
+    <t>U13209PN2020PTC189851</t>
+  </si>
+  <si>
+    <t>U14292MP2020PTC050949</t>
+  </si>
+  <si>
+    <t>U14292OR2020PTC032703</t>
+  </si>
+  <si>
+    <t>U15100JK2020PTC011373</t>
+  </si>
+  <si>
+    <t>U15100UP2020PTC127017</t>
+  </si>
+  <si>
+    <t>U15133HP2020PTC007816</t>
+  </si>
+  <si>
+    <t>U15134BR2020OPC045463</t>
+  </si>
+  <si>
+    <t>U15400AP2020OPC114165</t>
+  </si>
+  <si>
+    <t>U15400KA2020PTC132651</t>
+  </si>
+  <si>
+    <t>U15400MH2020PTC337635</t>
+  </si>
+  <si>
+    <t>U15400MH2020PTC337663</t>
+  </si>
+  <si>
+    <t>U15400OR2020OPC032706</t>
+  </si>
+  <si>
+    <t>U15490CT2020OPC009977</t>
+  </si>
+  <si>
+    <t>U15490KA2020PTC132616</t>
+  </si>
+  <si>
+    <t>U15490MH2020PTC337642</t>
+  </si>
+  <si>
+    <t>U15490MH2020PTC337675</t>
+  </si>
+  <si>
+    <t>U15490PB2020PTC050781</t>
+  </si>
+  <si>
+    <t>U15490TZ2020PTC033509</t>
+  </si>
+  <si>
+    <t>U15490UP2020PTC127010</t>
+  </si>
+  <si>
+    <t>U15490UP2020PTC127020</t>
+  </si>
+  <si>
+    <t>U15543BR2020PTC045471</t>
+  </si>
+  <si>
+    <t>U15549BR2020PTC045481</t>
+  </si>
+  <si>
+    <t>U15549MH2020PTC337628</t>
+  </si>
+  <si>
+    <t>U15549MH2020PTC337684</t>
+  </si>
+  <si>
+    <t>U15549WB2020PTC236443</t>
+  </si>
+  <si>
+    <t>U15549WB2020PTC236448</t>
+  </si>
+  <si>
+    <t>U17299DL2020PTC361840</t>
+  </si>
+  <si>
+    <t>U17299KA2020PTC132618</t>
+  </si>
+  <si>
+    <t>U17299MH2020PTC337699</t>
+  </si>
+  <si>
+    <t>U17299MH2020PTC337700</t>
+  </si>
+  <si>
+    <t>U17309PB2020PTC050786</t>
+  </si>
+  <si>
+    <t>U18101UP2020PTC127014</t>
+  </si>
+  <si>
+    <t>U18109UP2020PTC126988</t>
+  </si>
+  <si>
+    <t>U18209KA2020PTC132623</t>
+  </si>
+  <si>
+    <t>U18209RJ2020PTC068208</t>
+  </si>
+  <si>
+    <t>U18209WB2020PTC236451</t>
+  </si>
+  <si>
+    <t>U20299GJ2020PTC112691</t>
+  </si>
+  <si>
+    <t>U20299KA2020OPC132635</t>
+  </si>
+  <si>
+    <t>U21092KA2020PTC132613</t>
+  </si>
+  <si>
+    <t>U22190DL2020PTC361804</t>
+  </si>
+  <si>
+    <t>U22212DL2020PTC361801</t>
+  </si>
+  <si>
+    <t>U22219KA2020PTC132612</t>
+  </si>
+  <si>
+    <t>U22219TN2020PTC134403</t>
+  </si>
+  <si>
+    <t>U22219TZ2020PTC033513</t>
+  </si>
+  <si>
+    <t>U22220GJ2020PTC112680</t>
+  </si>
+  <si>
+    <t>U22300UP2020PTC127013</t>
+  </si>
+  <si>
+    <t>U24100GJ2020PTC112685</t>
+  </si>
+  <si>
+    <t>U24100HP2020PTC007815</t>
+  </si>
+  <si>
+    <t>U24100JH2020PTC014086</t>
+  </si>
+  <si>
+    <t>U24100MH2020PTC337670</t>
+  </si>
+  <si>
+    <t>U24100TG2020PTC139224</t>
+  </si>
+  <si>
+    <t>U24110BR2020PTC045476</t>
+  </si>
+  <si>
+    <t>U24110MH2020PLC337647</t>
+  </si>
+  <si>
+    <t>U24110UP2020PTC126992</t>
+  </si>
+  <si>
+    <t>U24230MH2020PTC337665</t>
+  </si>
+  <si>
+    <t>U24230MH2020PTC337689</t>
+  </si>
+  <si>
+    <t>U24231PB2020PTC050783</t>
+  </si>
+  <si>
+    <t>U24239TG2020PTC139193</t>
+  </si>
+  <si>
+    <t>U24240MH2020PTC337669</t>
+  </si>
+  <si>
+    <t>U24290DL2020PTC361820</t>
+  </si>
+  <si>
+    <t>U24290MP2020PTC050955</t>
+  </si>
+  <si>
+    <t>U24290TG2020PTC139194</t>
+  </si>
+  <si>
+    <t>U24290TG2020PTC139209</t>
+  </si>
+  <si>
+    <t>U24297TZ2020PTC033512</t>
+  </si>
+  <si>
+    <t>U24299DL2020PTC361835</t>
+  </si>
+  <si>
+    <t>U24299GJ2020PTC112681</t>
+  </si>
+  <si>
+    <t>U24299TN2020PTC134412</t>
+  </si>
+  <si>
+    <t>U24304HR2020PTC085368</t>
+  </si>
+  <si>
+    <t>U24304MH2020FTC337650</t>
+  </si>
+  <si>
+    <t>U24304PN2020PTC189839</t>
+  </si>
+  <si>
+    <t>U25190UP2020PTC126998</t>
+  </si>
+  <si>
+    <t>U25200DL2020PLC361829</t>
+  </si>
+  <si>
+    <t>U25209OR2020PTC032702</t>
+  </si>
+  <si>
+    <t>U25209WB2020PTC236464</t>
+  </si>
+  <si>
+    <t>U26900RJ2020PTC068221</t>
+  </si>
+  <si>
+    <t>U26999MH2020PTC337622</t>
+  </si>
+  <si>
+    <t>U27200RJ2020PTC068218</t>
+  </si>
+  <si>
+    <t>U28990KA2020PTC132624</t>
+  </si>
+  <si>
+    <t>U28999KA2020PTC132639</t>
+  </si>
+  <si>
+    <t>U28999RJ2020PTC068214</t>
+  </si>
+  <si>
+    <t>U29100DL2020PTC361817</t>
+  </si>
+  <si>
+    <t>U29100HR2020PTC085367</t>
+  </si>
+  <si>
+    <t>U29100JH2020PTC014089</t>
+  </si>
+  <si>
+    <t>U29100MH2020PTC337698</t>
+  </si>
+  <si>
+    <t>U29291MH2020PTC337630</t>
+  </si>
+  <si>
+    <t>U29308HR2020PTC085357</t>
+  </si>
+  <si>
+    <t>U29308UR2020PTC010778</t>
+  </si>
+  <si>
+    <t>U29308WB2020PTC236444</t>
+  </si>
+  <si>
+    <t>U29309TN2020PTC134425</t>
+  </si>
+  <si>
+    <t>U31900DL2020FTC361834</t>
+  </si>
+  <si>
+    <t>U31900HR2020PTC085355</t>
+  </si>
+  <si>
+    <t>U31909WB2020PTC236459</t>
+  </si>
+  <si>
+    <t>U33110UP2020PTC127011</t>
+  </si>
+  <si>
+    <t>U34100JK2020PTC011371</t>
+  </si>
+  <si>
+    <t>U34100TN2020PTC134410</t>
+  </si>
+  <si>
+    <t>U34300TN2020FTC134423</t>
+  </si>
+  <si>
+    <t>U36109AP2020PTC114166</t>
+  </si>
+  <si>
+    <t>U36109BR2020OPC045477</t>
+  </si>
+  <si>
+    <t>U36109HR2020PTC085366</t>
+  </si>
+  <si>
+    <t>U36998DL2020PTC361797</t>
+  </si>
+  <si>
+    <t>U36999BR2020PTC045469</t>
+  </si>
+  <si>
+    <t>U36999DL2020PTC361832</t>
+  </si>
+  <si>
+    <t>U36999TN2020PTC134411</t>
+  </si>
+  <si>
+    <t>U36999TN2020PTC134426</t>
+  </si>
+  <si>
+    <t>U37100TZ2020PTC033514</t>
+  </si>
+  <si>
+    <t>U40106DL2020PTC361819</t>
+  </si>
+  <si>
+    <t>U40106DL2020PTC361844</t>
+  </si>
+  <si>
+    <t>U40106TG2020PTC139211</t>
+  </si>
+  <si>
+    <t>U40300GJ2020PTC112683</t>
+  </si>
+  <si>
+    <t>U45200BR2020PTC045462</t>
+  </si>
+  <si>
+    <t>U45200RJ2020PTC068211</t>
+  </si>
+  <si>
+    <t>U45200UP2020PTC127000</t>
+  </si>
+  <si>
+    <t>U45201KA2020PTC132645</t>
+  </si>
+  <si>
+    <t>U45201MH2020PTC337645</t>
+  </si>
+  <si>
+    <t>U45201TN2020PTC134420</t>
+  </si>
+  <si>
+    <t>U45201UP2020PLC126983</t>
+  </si>
+  <si>
+    <t>U45201UP2020PTC127009</t>
+  </si>
+  <si>
+    <t>U45202DL2020PTC361795</t>
+  </si>
+  <si>
+    <t>U45203DL2020PTC361800</t>
+  </si>
+  <si>
+    <t>U45309BR2020PTC045466</t>
+  </si>
+  <si>
+    <t>U45309BR2020PTC045470</t>
+  </si>
+  <si>
+    <t>U45309BR2020PTC045473</t>
+  </si>
+  <si>
+    <t>U45309HR2020PTC085371</t>
+  </si>
+  <si>
+    <t>U45309JK2020PTC011370</t>
+  </si>
+  <si>
+    <t>U45309OR2020PTC032704</t>
+  </si>
+  <si>
+    <t>U45309TG2020PTC139206</t>
+  </si>
+  <si>
+    <t>U45309TN2020PTC134404</t>
+  </si>
+  <si>
+    <t>U45309UP2020PTC127006</t>
+  </si>
+  <si>
+    <t>U45400GA2020PTC014283</t>
+  </si>
+  <si>
+    <t>U45400KA2020PTC132643</t>
+  </si>
+  <si>
+    <t>U45400MH2020PTC337648</t>
+  </si>
+  <si>
+    <t>U45400MP2020PTC050956</t>
+  </si>
+  <si>
+    <t>U45500MH2020PTC337697</t>
+  </si>
+  <si>
+    <t>U45500UP2020PTC127019</t>
+  </si>
+  <si>
+    <t>U50103PB2020PTC050782</t>
+  </si>
+  <si>
+    <t>U50403DL2020PTC361841</t>
+  </si>
+  <si>
+    <t>U50404DL2020PTC361816</t>
+  </si>
+  <si>
+    <t>U50500AP2020OPC114168</t>
+  </si>
+  <si>
+    <t>U51397DL2020PTC361802</t>
+  </si>
+  <si>
+    <t>U51496PY2020PTC008522</t>
+  </si>
+  <si>
+    <t>U51909BR2020PTC045461</t>
+  </si>
+  <si>
+    <t>U51909DL2020PTC361806</t>
+  </si>
+  <si>
+    <t>U51909GJ2020PTC112684</t>
+  </si>
+  <si>
+    <t>U51909GJ2020PTC112688</t>
+  </si>
+  <si>
+    <t>U51909GJ2020PTC112703</t>
+  </si>
+  <si>
+    <t>U51909HR2020PTC085356</t>
+  </si>
+  <si>
+    <t>U51909HR2020PTC085379</t>
+  </si>
+  <si>
+    <t>U51909KA2020PTC132619</t>
+  </si>
+  <si>
+    <t>U51909KA2020PTC132642</t>
+  </si>
+  <si>
+    <t>U51909KL2020PTC061580</t>
+  </si>
+  <si>
+    <t>U51909KL2020PTC061586</t>
+  </si>
+  <si>
+    <t>U51909MH2020FTC337683</t>
+  </si>
+  <si>
+    <t>U51909MH2020PTC337626</t>
+  </si>
+  <si>
+    <t>U51909MH2020PTC337636</t>
+  </si>
+  <si>
+    <t>U51909MH2020PTC337639</t>
+  </si>
+  <si>
+    <t>U51909MH2020PTC337687</t>
+  </si>
+  <si>
+    <t>U51909MH2020PTC337691</t>
+  </si>
+  <si>
+    <t>U51909RJ2020PTC068215</t>
+  </si>
+  <si>
+    <t>U51909TG2020PTC139200</t>
+  </si>
+  <si>
+    <t>U51909TG2020PTC139218</t>
+  </si>
+  <si>
+    <t>U51909UP2020PTC126993</t>
+  </si>
+  <si>
+    <t>U51909UP2020PTC127008</t>
+  </si>
+  <si>
+    <t>U51909WB2020PTC236450</t>
+  </si>
+  <si>
+    <t>U51909WB2020PTC236454</t>
+  </si>
+  <si>
+    <t>U52100HR2020PTC085360</t>
+  </si>
+  <si>
+    <t>U52311DL2020PTC361823</t>
+  </si>
+  <si>
+    <t>U52335BR2020PTC045464</t>
+  </si>
+  <si>
+    <t>U52396HR2020PTC085372</t>
+  </si>
+  <si>
+    <t>U52397MH2020PTC337640</t>
+  </si>
+  <si>
+    <t>U52399AP2020PTC114161</t>
+  </si>
+  <si>
+    <t>U52520JH2020PTC014090</t>
+  </si>
+  <si>
+    <t>U52609DL2020PTC361803</t>
+  </si>
+  <si>
+    <t>U52609MH2020PTC337668</t>
+  </si>
+  <si>
+    <t>U52609PB2020PTC050784</t>
+  </si>
+  <si>
+    <t>U52609TG2020PTC139219</t>
+  </si>
+  <si>
+    <t>U52609TN2020PTC134418</t>
+  </si>
+  <si>
+    <t>U52609WB2020OPC236452</t>
+  </si>
+  <si>
+    <t>U55101DL2020PTC361793</t>
+  </si>
+  <si>
+    <t>U55101DL2020PTC361811</t>
+  </si>
+  <si>
+    <t>U55101MH2020PTC337661</t>
+  </si>
+  <si>
+    <t>U55200TN2020PTC134415</t>
+  </si>
+  <si>
+    <t>U55209DL2020PTC361826</t>
+  </si>
+  <si>
+    <t>U55209DL2020PTC361828</t>
+  </si>
+  <si>
+    <t>U55209MP2020OPC050948</t>
+  </si>
+  <si>
+    <t>U55209RJ2020PTC068224</t>
+  </si>
+  <si>
+    <t>U55209TG2020PTC139214</t>
+  </si>
+  <si>
+    <t>U55209TN2020PTC134407</t>
+  </si>
+  <si>
+    <t>U60100WB2020PTC236456</t>
+  </si>
+  <si>
+    <t>U60230UP2020PLC126986</t>
+  </si>
+  <si>
+    <t>U63023TN2020PTC134405</t>
+  </si>
+  <si>
+    <t>U63030DL2020PTC361792</t>
+  </si>
+  <si>
+    <t>U63030DL2020PTC361808</t>
+  </si>
+  <si>
+    <t>U63030HR2020PTC085365</t>
+  </si>
+  <si>
+    <t>U63030MH2020PTC337696</t>
+  </si>
+  <si>
+    <t>U63030MP2020PTC050951</t>
+  </si>
+  <si>
+    <t>U63030UP2020PTC126989</t>
+  </si>
+  <si>
+    <t>U63030UP2020PTC127002</t>
+  </si>
+  <si>
+    <t>U63030UR2020PTC010780</t>
+  </si>
+  <si>
+    <t>U63030UR2020PTC010782</t>
+  </si>
+  <si>
+    <t>U63030WB2020PTC236446</t>
+  </si>
+  <si>
+    <t>U63040DL2020PTC361824</t>
+  </si>
+  <si>
+    <t>U63040GA2020PTC014285</t>
+  </si>
+  <si>
+    <t>U63040HR2020PTC085361</t>
+  </si>
+  <si>
+    <t>U63090PN2020PTC189843</t>
+  </si>
+  <si>
+    <t>U64204TN2020PTC134419</t>
+  </si>
+  <si>
+    <t>U65929DL2020PTC361825</t>
+  </si>
+  <si>
+    <t>U65929JH2020PLN014083</t>
+  </si>
+  <si>
+    <t>U65929UP2020PLN126990</t>
+  </si>
+  <si>
+    <t>U65990KA2020PTC132638</t>
+  </si>
+  <si>
+    <t>U65990PN2020PLN189831</t>
+  </si>
+  <si>
+    <t>U65990PN2020PLN189841</t>
+  </si>
+  <si>
+    <t>U65990UP2020PLN127023</t>
+  </si>
+  <si>
+    <t>U65990WB2020PLN236445</t>
+  </si>
+  <si>
+    <t>U65999MH2020PTC337638</t>
+  </si>
+  <si>
+    <t>U65999TG2020PTC139198</t>
+  </si>
+  <si>
+    <t>U65999UP2020PLN126991</t>
+  </si>
+  <si>
+    <t>U65999UP2020PLN127012</t>
+  </si>
+  <si>
+    <t>U67100MH2020PTC337620</t>
+  </si>
+  <si>
+    <t>U67190PB2020PTC050788</t>
+  </si>
+  <si>
+    <t>U67190WB2020PTC236449</t>
+  </si>
+  <si>
+    <t>U67200DL2020PTC361845</t>
+  </si>
+  <si>
+    <t>U67200GJ2020PLN112696</t>
+  </si>
+  <si>
+    <t>U67200TN2020PTC134417</t>
+  </si>
+  <si>
+    <t>U67200TZ2020PTC033511</t>
+  </si>
+  <si>
+    <t>U70100BR2020PTC045475</t>
+  </si>
+  <si>
+    <t>U70100GJ2020PTC112686</t>
+  </si>
+  <si>
+    <t>U70100KA2020PTC132629</t>
+  </si>
+  <si>
+    <t>U70100PN2020OPC189847</t>
+  </si>
+  <si>
+    <t>U70109DL2020PTC361837</t>
+  </si>
+  <si>
+    <t>U70109HR2020PTC085362</t>
+  </si>
+  <si>
+    <t>U70109HR2020PTC085375</t>
+  </si>
+  <si>
+    <t>U70109HR2020PTC085376</t>
+  </si>
+  <si>
+    <t>U70109MH2020PTC337679</t>
+  </si>
+  <si>
+    <t>U70109RJ2020PTC068216</t>
+  </si>
+  <si>
+    <t>U70109TG2020PTC139192</t>
+  </si>
+  <si>
+    <t>U70109TZ2020PTC033515</t>
+  </si>
+  <si>
+    <t>U70109UP2020PTC127001</t>
+  </si>
+  <si>
+    <t>U70109UP2020PTC127021</t>
+  </si>
+  <si>
+    <t>U70109WB2020PTC236440</t>
+  </si>
+  <si>
+    <t>U70109WB2020PTC236461</t>
+  </si>
+  <si>
+    <t>U70109WB2020PTC236465</t>
+  </si>
+  <si>
+    <t>U70200HR2020PLC085380</t>
+  </si>
+  <si>
+    <t>U72200HR2020PTC085369</t>
+  </si>
+  <si>
+    <t>U72200KA2020PTC132620</t>
+  </si>
+  <si>
+    <t>U72200KA2020PTC132647</t>
+  </si>
+  <si>
+    <t>U72200KL2020PTC061581</t>
+  </si>
+  <si>
+    <t>U72200MH2020OPC337695</t>
+  </si>
+  <si>
+    <t>U72200MP2020PTC050952</t>
+  </si>
+  <si>
+    <t>U72200PN2020PTC189830</t>
+  </si>
+  <si>
+    <t>U72200UP2020PTC126984</t>
+  </si>
+  <si>
+    <t>U72501UP2020PTC126982</t>
+  </si>
+  <si>
+    <t>U72900AP2020PTC114167</t>
+  </si>
+  <si>
+    <t>U72900DL2020PTC361807</t>
+  </si>
+  <si>
+    <t>U72900DL2020PTC361814</t>
+  </si>
+  <si>
+    <t>U72900DL2020PTC361838</t>
+  </si>
+  <si>
+    <t>U72900DL2020PTC361839</t>
+  </si>
+  <si>
+    <t>U72900DL2020PTC361842</t>
+  </si>
+  <si>
+    <t>U72900GJ2020FTC112702</t>
+  </si>
+  <si>
+    <t>U72900GJ2020PTC112701</t>
+  </si>
+  <si>
+    <t>U72900HR2020PTC085359</t>
+  </si>
+  <si>
+    <t>U72900HR2020PTC085364</t>
+  </si>
+  <si>
+    <t>U72900HR2020PTC085373</t>
+  </si>
+  <si>
+    <t>U72900KA2020FTC132614</t>
+  </si>
+  <si>
+    <t>U72900KA2020FTC132650</t>
+  </si>
+  <si>
+    <t>U72900KA2020PTC132615</t>
+  </si>
+  <si>
+    <t>U72900KA2020PTC132617</t>
+  </si>
+  <si>
+    <t>U72900KA2020PTC132621</t>
+  </si>
+  <si>
+    <t>U72900KA2020PTC132625</t>
+  </si>
+  <si>
+    <t>U72900KA2020PTC132641</t>
+  </si>
+  <si>
+    <t>U72900KA2020PTC132644</t>
+  </si>
+  <si>
+    <t>U72900KA2020PTC132653</t>
+  </si>
+  <si>
+    <t>U72900KL2020PTC061584</t>
+  </si>
+  <si>
+    <t>U72900KL2020PTC061588</t>
+  </si>
+  <si>
+    <t>U72900MH2020PTC337627</t>
+  </si>
+  <si>
+    <t>U72900MH2020PTC337632</t>
+  </si>
+  <si>
+    <t>U72900MH2020PTC337664</t>
+  </si>
+  <si>
+    <t>U72900MH2020PTC337673</t>
+  </si>
+  <si>
+    <t>U72900MH2020PTC337680</t>
+  </si>
+  <si>
+    <t>U72900MH2020PTC337690</t>
+  </si>
+  <si>
+    <t>U72900MH2020PTC337692</t>
+  </si>
+  <si>
+    <t>U72900PB2020PTC050787</t>
+  </si>
+  <si>
+    <t>U72900PB2020PTC050789</t>
+  </si>
+  <si>
+    <t>U72900PN2020PTC189833</t>
+  </si>
+  <si>
+    <t>U72900PN2020PTC189838</t>
+  </si>
+  <si>
+    <t>U72900PN2020PTC189848</t>
+  </si>
+  <si>
+    <t>U72900TG2020PTC139196</t>
+  </si>
+  <si>
+    <t>U72900TG2020PTC139199</t>
+  </si>
+  <si>
+    <t>U72900TG2020PTC139201</t>
+  </si>
+  <si>
+    <t>U72900TG2020PTC139203</t>
+  </si>
+  <si>
+    <t>U72900TG2020PTC139205</t>
+  </si>
+  <si>
+    <t>U72900TG2020PTC139207</t>
+  </si>
+  <si>
+    <t>U72900TG2020PTC139212</t>
+  </si>
+  <si>
+    <t>U72900TG2020PTC139213</t>
+  </si>
+  <si>
+    <t>U72900TG2020PTC139215</t>
+  </si>
+  <si>
+    <t>U72900TG2020PTC139220</t>
+  </si>
+  <si>
+    <t>U72900TG2020PTC139221</t>
+  </si>
+  <si>
+    <t>U72900TN2020PTC134406</t>
+  </si>
+  <si>
+    <t>U72900TN2020PTC134413</t>
+  </si>
+  <si>
+    <t>U72900TN2020PTC134414</t>
+  </si>
+  <si>
+    <t>U72900TZ2020PTC033508</t>
+  </si>
+  <si>
+    <t>U72900TZ2020PTC033510</t>
+  </si>
+  <si>
+    <t>U72900UP2020OPC127018</t>
+  </si>
+  <si>
+    <t>U72900UP2020PTC126987</t>
+  </si>
+  <si>
+    <t>U72900UP2020PTC126995</t>
+  </si>
+  <si>
+    <t>U72900UP2020PTC126996</t>
+  </si>
+  <si>
+    <t>U72900UP2020PTC126997</t>
+  </si>
+  <si>
+    <t>U72900UP2020PTC127004</t>
+  </si>
+  <si>
+    <t>U72900UP2020PTC127005</t>
+  </si>
+  <si>
+    <t>U72900UP2020PTC127016</t>
+  </si>
+  <si>
+    <t>U72900WB2020PTC236442</t>
+  </si>
+  <si>
+    <t>U72900WB2020PTC236457</t>
+  </si>
+  <si>
+    <t>U72900WB2020PTC236458</t>
+  </si>
+  <si>
+    <t>U72900WB2020PTC236462</t>
+  </si>
+  <si>
+    <t>U72900WB2020PTC236463</t>
+  </si>
+  <si>
+    <t>U73100KA2020FTC132622</t>
+  </si>
+  <si>
+    <t>U73100TN2020PTC134416</t>
+  </si>
+  <si>
+    <t>U73200MH2020PTC337634</t>
+  </si>
+  <si>
+    <t>U73200MH2020PTC337643</t>
+  </si>
+  <si>
+    <t>U74140HR2020PTC085358</t>
+  </si>
+  <si>
+    <t>U74140KL2020PTC061587</t>
+  </si>
+  <si>
+    <t>U74140MH2020PTC337662</t>
+  </si>
+  <si>
+    <t>U74200JH2020PTC014088</t>
+  </si>
+  <si>
+    <t>U74900GJ2020PTC112689</t>
+  </si>
+  <si>
+    <t>U74900KA2020PTC132649</t>
+  </si>
+  <si>
+    <t>U74900TN2020PTC134422</t>
+  </si>
+  <si>
+    <t>U74997PN2020PTC189844</t>
+  </si>
+  <si>
+    <t>U74999BR2020PTC045468</t>
+  </si>
+  <si>
+    <t>U74999BR2020PTC045474</t>
+  </si>
+  <si>
+    <t>U74999CT2020PTC009976</t>
+  </si>
+  <si>
+    <t>U74999DL2020OPC361821</t>
+  </si>
+  <si>
+    <t>U74999DL2020OPC361833</t>
+  </si>
+  <si>
+    <t>U74999DL2020PTC361794</t>
+  </si>
+  <si>
+    <t>U74999DL2020PTC361796</t>
+  </si>
+  <si>
+    <t>U74999DL2020PTC361798</t>
+  </si>
+  <si>
+    <t>U74999DL2020PTC361799</t>
+  </si>
+  <si>
+    <t>U74999DL2020PTC361812</t>
+  </si>
+  <si>
+    <t>U74999DL2020PTC361813</t>
+  </si>
+  <si>
+    <t>U74999DL2020PTC361818</t>
+  </si>
+  <si>
+    <t>U74999DL2020PTC361822</t>
+  </si>
+  <si>
+    <t>U74999DL2020PTC361831</t>
+  </si>
+  <si>
+    <t>U74999DL2020PTC361843</t>
+  </si>
+  <si>
+    <t>U74999GJ2020OPC112704</t>
+  </si>
+  <si>
+    <t>U74999GJ2020PTC112678</t>
+  </si>
+  <si>
+    <t>U74999GJ2020PTC112679</t>
+  </si>
+  <si>
+    <t>U74999GJ2020PTC112687</t>
+  </si>
+  <si>
+    <t>U74999GJ2020PTC112693</t>
+  </si>
+  <si>
+    <t>U74999GJ2020PTC112697</t>
+  </si>
+  <si>
+    <t>U74999HR2020PTC085378</t>
+  </si>
+  <si>
+    <t>U74999HR2020PTC085382</t>
+  </si>
+  <si>
+    <t>U74999JH2020PTC014085</t>
+  </si>
+  <si>
+    <t>U74999KA2020PTC132626</t>
+  </si>
+  <si>
+    <t>U74999KA2020PTC132628</t>
+  </si>
+  <si>
+    <t>U74999KA2020PTC132630</t>
+  </si>
+  <si>
+    <t>U74999KA2020PTC132632</t>
+  </si>
+  <si>
+    <t>U74999KA2020PTC132634</t>
+  </si>
+  <si>
+    <t>U74999KA2020PTC132636</t>
+  </si>
+  <si>
+    <t>U74999KA2020PTC132637</t>
+  </si>
+  <si>
+    <t>U74999KA2020PTC132646</t>
+  </si>
+  <si>
+    <t>U74999KA2020PTC132648</t>
+  </si>
+  <si>
+    <t>U74999KA2020PTC132654</t>
+  </si>
+  <si>
+    <t>U74999KL2020PTC061583</t>
+  </si>
+  <si>
+    <t>U74999MH2020OPC337641</t>
+  </si>
+  <si>
+    <t>U74999MH2020PTC337621</t>
+  </si>
+  <si>
+    <t>U74999MH2020PTC337623</t>
+  </si>
+  <si>
+    <t>U74999MH2020PTC337637</t>
+  </si>
+  <si>
+    <t>U74999MH2020PTC337646</t>
+  </si>
+  <si>
+    <t>U74999MH2020PTC337653</t>
+  </si>
+  <si>
+    <t>U74999MH2020PTC337660</t>
+  </si>
+  <si>
+    <t>U74999MH2020PTC337666</t>
+  </si>
+  <si>
+    <t>U74999MH2020PTC337674</t>
+  </si>
+  <si>
+    <t>U74999MH2020PTC337678</t>
+  </si>
+  <si>
+    <t>U74999MH2020PTC337681</t>
+  </si>
+  <si>
+    <t>U74999MH2020PTC337685</t>
+  </si>
+  <si>
+    <t>U74999MH2020PTC337686</t>
+  </si>
+  <si>
+    <t>U74999MH2020PTC337688</t>
+  </si>
+  <si>
+    <t>U74999MH2020PTC337693</t>
+  </si>
+  <si>
+    <t>U74999MH2020PTC337694</t>
+  </si>
+  <si>
+    <t>U74999MN2020OPC014051</t>
+  </si>
+  <si>
+    <t>U74999MP2020PTC050953</t>
+  </si>
+  <si>
+    <t>U74999OR2020PTC032701</t>
+  </si>
+  <si>
+    <t>U74999OR2020PTC032705</t>
+  </si>
+  <si>
+    <t>U74999PB2020PTC050785</t>
+  </si>
+  <si>
+    <t>U74999PN2020PTC189832</t>
+  </si>
+  <si>
+    <t>U74999PN2020PTC189834</t>
+  </si>
+  <si>
+    <t>U74999PN2020PTC189840</t>
+  </si>
+  <si>
+    <t>U74999PN2020PTC189842</t>
+  </si>
+  <si>
+    <t>U74999PN2020PTC189845</t>
+  </si>
+  <si>
+    <t>U74999PN2020PTC189846</t>
+  </si>
+  <si>
+    <t>U74999PN2020PTC189850</t>
+  </si>
+  <si>
+    <t>U74999PN2020PTC189852</t>
+  </si>
+  <si>
+    <t>U74999RJ2020PTC068213</t>
+  </si>
+  <si>
+    <t>U74999RJ2020PTC068217</t>
+  </si>
+  <si>
+    <t>U74999RJ2020PTC068223</t>
+  </si>
+  <si>
+    <t>U74999TG2020PTC139195</t>
+  </si>
+  <si>
+    <t>U74999TG2020PTC139197</t>
+  </si>
+  <si>
+    <t>U74999TG2020PTC139208</t>
+  </si>
+  <si>
+    <t>U74999TN2020PTC134409</t>
+  </si>
+  <si>
+    <t>U74999TN2020PTC134421</t>
+  </si>
+  <si>
+    <t>U74999TN2020PTC134424</t>
+  </si>
+  <si>
+    <t>U74999UP2020PTC126985</t>
+  </si>
+  <si>
+    <t>U74999UP2020PTC127015</t>
+  </si>
+  <si>
+    <t>U74999UR2020PTC010777</t>
+  </si>
+  <si>
+    <t>U74999UR2020PTC010781</t>
+  </si>
+  <si>
+    <t>U74999WB2020PTC236460</t>
+  </si>
+  <si>
+    <t>U80300RJ2020PTC068209</t>
+  </si>
+  <si>
+    <t>U80900BR2020PTC045472</t>
+  </si>
+  <si>
+    <t>U80902HR2020PTC085374</t>
+  </si>
+  <si>
+    <t>U80903MH2020PTC337676</t>
+  </si>
+  <si>
+    <t>U80903OR2020PTC032699</t>
+  </si>
+  <si>
+    <t>U80904DL2020NPL361815</t>
+  </si>
+  <si>
+    <t>U80904DL2020PTC361830</t>
+  </si>
+  <si>
+    <t>U80904GJ2020PTC112692</t>
+  </si>
+  <si>
+    <t>U80904MH2020PTC337682</t>
+  </si>
+  <si>
+    <t>U85100BR2020PTC045465</t>
+  </si>
+  <si>
+    <t>U85100DL2020PTC361805</t>
+  </si>
+  <si>
+    <t>U85100DL2020PTC361809</t>
+  </si>
+  <si>
+    <t>U85100KA2020PTC132627</t>
+  </si>
+  <si>
+    <t>U85100TG2020PTC139217</t>
+  </si>
+  <si>
+    <t>U85100TG2020PTC139223</t>
+  </si>
+  <si>
+    <t>U85110KL2020PTC061582</t>
+  </si>
+  <si>
+    <t>U85110PB2020PTC050790</t>
+  </si>
+  <si>
+    <t>U85300AP2020NPL114163</t>
+  </si>
+  <si>
+    <t>U85300BR2020PTC045479</t>
+  </si>
+  <si>
+    <t>U85300CT2020NPL009975</t>
+  </si>
+  <si>
+    <t>U85300DL2020NPL361827</t>
+  </si>
+  <si>
+    <t>U85300MH2020NPL337644</t>
+  </si>
+  <si>
+    <t>U85300RJ2020NPL068222</t>
+  </si>
+  <si>
+    <t>U85300TZ2020NPL033516</t>
+  </si>
+  <si>
+    <t>U85320PB2020PTC050791</t>
+  </si>
+  <si>
+    <t>U90000MH2020PTC337629</t>
+  </si>
+  <si>
+    <t>U90000MP2020PTC050957</t>
+  </si>
+  <si>
+    <t>U90009GJ2020PTC112694</t>
+  </si>
+  <si>
+    <t>U92100TG2020PTC139202</t>
+  </si>
+  <si>
+    <t>U92140DL2020PTC361810</t>
+  </si>
+  <si>
+    <t>U92410DL2020PTC361836</t>
+  </si>
+  <si>
+    <t>U92410KL2020PTC061585</t>
+  </si>
+  <si>
+    <t>U92419KA2020PTC132631</t>
+  </si>
+  <si>
+    <t>U92419UR2020OPC010783</t>
+  </si>
+  <si>
+    <t>U92490MH2020PTC337667</t>
+  </si>
+  <si>
+    <t>U93000GJ2020PTC112690</t>
+  </si>
+  <si>
+    <t>U93000KA2020PTC132633</t>
+  </si>
+  <si>
+    <t>U93000KA2020PTC132640</t>
+  </si>
+  <si>
+    <t>U93000MH2020PTC337677</t>
+  </si>
+  <si>
+    <t>U93000RJ2020PTC068210</t>
+  </si>
+  <si>
+    <t>U93000TG2020PTC139216</t>
+  </si>
+  <si>
+    <t>U93000UP2020PTC127007</t>
+  </si>
+  <si>
+    <t>U93000WB2020PTC236453</t>
+  </si>
+  <si>
+    <t>U93020TG2020OPC139210</t>
+  </si>
+  <si>
+    <t>U93090CH2020PTC042918</t>
+  </si>
+  <si>
+    <t>U93090GA2020PTC014284</t>
+  </si>
+  <si>
+    <t>U93090GJ2020PTC112677</t>
+  </si>
+  <si>
+    <t>U93090GJ2020PTC112698</t>
+  </si>
+  <si>
+    <t>F06559</t>
+  </si>
+  <si>
+    <t>F06561</t>
+  </si>
+  <si>
+    <t>F06563</t>
+  </si>
+  <si>
+    <t>AAR-8997</t>
+  </si>
+  <si>
+    <t>AAR-8998</t>
+  </si>
+  <si>
+    <t>AAR-8999</t>
+  </si>
+  <si>
+    <t>AAR-9000</t>
+  </si>
+  <si>
+    <t>AAR-9001</t>
+  </si>
+  <si>
+    <t>AAR-9002</t>
+  </si>
+  <si>
+    <t>AAR-9003</t>
+  </si>
+  <si>
+    <t>AAR-9004</t>
+  </si>
+  <si>
+    <t>AAR-9005</t>
+  </si>
+  <si>
+    <t>AAR-9006</t>
+  </si>
+  <si>
+    <t>AAR-9007</t>
+  </si>
+  <si>
+    <t>AAR-9008</t>
+  </si>
+  <si>
+    <t>AAR-9009</t>
+  </si>
+  <si>
+    <t>AAR-9010</t>
+  </si>
+  <si>
+    <t>AAR-9011</t>
+  </si>
+  <si>
+    <t>AAR-9012</t>
+  </si>
+  <si>
+    <t>AAR-9013</t>
+  </si>
+  <si>
+    <t>AAR-9014</t>
+  </si>
+  <si>
+    <t>AAR-9015</t>
+  </si>
+  <si>
+    <t>AAR-9016</t>
+  </si>
+  <si>
+    <t>AAR-9017</t>
+  </si>
+  <si>
+    <t>AAR-9018</t>
+  </si>
+  <si>
+    <t>AAR-9019</t>
+  </si>
+  <si>
+    <t>AAR-9020</t>
+  </si>
+  <si>
+    <t>AAR-9021</t>
+  </si>
+  <si>
+    <t>AAR-9022</t>
+  </si>
+  <si>
+    <t>AAR-9023</t>
+  </si>
+  <si>
+    <t>AAR-9024</t>
+  </si>
+  <si>
+    <t>AAR-9025</t>
+  </si>
+  <si>
+    <t>AAR-9026</t>
+  </si>
+  <si>
+    <t>AAR-9027</t>
+  </si>
+  <si>
+    <t>AAR-9028</t>
+  </si>
+  <si>
+    <t>AAR-9029</t>
+  </si>
+  <si>
+    <t>AAR-9030</t>
+  </si>
+  <si>
+    <t>AAR-9031</t>
+  </si>
+  <si>
+    <t>AAR-9032</t>
+  </si>
+  <si>
+    <t>AAR-9033</t>
+  </si>
+  <si>
+    <t>AAR-9034</t>
+  </si>
+  <si>
+    <t>AAR-9035</t>
+  </si>
+  <si>
+    <t>AAR-9036</t>
+  </si>
+  <si>
+    <t>AAR-9037</t>
+  </si>
+  <si>
+    <t>AAR-9038</t>
+  </si>
+  <si>
+    <t>AAR-9039</t>
+  </si>
+  <si>
+    <t>AAR-9040</t>
+  </si>
+  <si>
+    <t>AAR-9041</t>
+  </si>
+  <si>
+    <t>AAR-9042</t>
+  </si>
+  <si>
+    <t>AAR-9043</t>
+  </si>
+  <si>
+    <t>AAR-9044</t>
+  </si>
+  <si>
+    <t>AAR-9045</t>
+  </si>
+  <si>
+    <t>AAR-9046</t>
+  </si>
+  <si>
+    <t>AAR-9047</t>
+  </si>
+  <si>
+    <t>AAR-9048</t>
+  </si>
+  <si>
+    <t>AAR-9049</t>
+  </si>
+  <si>
+    <t>AAR-9050</t>
+  </si>
+  <si>
+    <t>AAR-9051</t>
+  </si>
+  <si>
+    <t>AAR-9052</t>
+  </si>
+  <si>
+    <t>AAR-9053</t>
+  </si>
+  <si>
+    <t>AAR-9054</t>
+  </si>
+  <si>
+    <t>AAR-9055</t>
+  </si>
+  <si>
+    <t>AAR-9056</t>
+  </si>
+  <si>
+    <t>AAR-9057</t>
+  </si>
+  <si>
+    <t>AAR-9058</t>
+  </si>
+  <si>
+    <t>AAR-9059</t>
+  </si>
+  <si>
+    <t>AAR-9060</t>
+  </si>
+  <si>
+    <t>AAR-9061</t>
+  </si>
+  <si>
+    <t>AAR-9062</t>
+  </si>
+  <si>
+    <t>AAR-9063</t>
+  </si>
+  <si>
+    <t>AAR-9064</t>
+  </si>
+  <si>
+    <t>AAR-9065</t>
+  </si>
+  <si>
+    <t>AAR-9066</t>
+  </si>
+  <si>
+    <t>AAR-9067</t>
+  </si>
+  <si>
+    <t>AAR-9068</t>
+  </si>
+  <si>
+    <t>AAR-9069</t>
+  </si>
+  <si>
+    <t>AAR-9070</t>
+  </si>
+  <si>
+    <t>AAR-9071</t>
+  </si>
+  <si>
+    <t>AAR-9072</t>
+  </si>
+  <si>
+    <t>AAR-9073</t>
+  </si>
+  <si>
+    <t>AAR-9074</t>
+  </si>
+  <si>
+    <t>AAR-9075</t>
+  </si>
+  <si>
+    <t>AAR-9076</t>
+  </si>
+  <si>
+    <t>AAR-9077</t>
+  </si>
+  <si>
+    <t>AAR-9078</t>
+  </si>
+  <si>
+    <t>AAR-9079</t>
+  </si>
+  <si>
+    <t>AAR-9080</t>
+  </si>
+  <si>
+    <t>AAR-9081</t>
+  </si>
+  <si>
+    <t>AAR-9082</t>
+  </si>
+  <si>
+    <t>AAR-9083</t>
+  </si>
+  <si>
+    <t>AAR-9084</t>
+  </si>
+  <si>
+    <t>AAR-9085</t>
+  </si>
+  <si>
+    <t>AAR-9086</t>
+  </si>
+  <si>
+    <t>AAR-9087</t>
+  </si>
+  <si>
+    <t>AAR-9088</t>
+  </si>
+  <si>
+    <t>AAR-9089</t>
+  </si>
+  <si>
+    <t>AAR-9090</t>
+  </si>
+  <si>
+    <t>AAR-9091</t>
+  </si>
+  <si>
+    <t>AAR-9092</t>
+  </si>
+  <si>
+    <t>AAR-9093</t>
+  </si>
+  <si>
+    <t>AAR-9094</t>
+  </si>
+  <si>
+    <t>AAR-9095</t>
+  </si>
+  <si>
+    <t>AAR-9096</t>
+  </si>
+  <si>
+    <t>AAR-9097</t>
+  </si>
+  <si>
+    <t>AAR-9098</t>
+  </si>
+  <si>
+    <t>AAR-9099</t>
+  </si>
+  <si>
+    <t>AAR-9100</t>
+  </si>
+  <si>
+    <t>AAR-9101</t>
+  </si>
+  <si>
+    <t>AAR-9102</t>
+  </si>
+  <si>
+    <t>AAR-9103</t>
+  </si>
+  <si>
+    <t>AAR-9104</t>
+  </si>
+  <si>
+    <t>AAR-9105</t>
+  </si>
+  <si>
+    <t>AAR-9106</t>
+  </si>
+  <si>
+    <t>AAR-9107</t>
+  </si>
+  <si>
+    <t>AAR-9108</t>
+  </si>
+  <si>
+    <t>AAR-9109</t>
+  </si>
+  <si>
+    <t>AAR-9110</t>
+  </si>
+  <si>
+    <t>AAR-9111</t>
+  </si>
+  <si>
+    <t>AAR-9112</t>
+  </si>
+  <si>
+    <t>AAR-9113</t>
+  </si>
+  <si>
+    <t>AAR-9114</t>
+  </si>
+  <si>
+    <t>AAR-9115</t>
+  </si>
+  <si>
+    <t>AAR-9116</t>
+  </si>
+  <si>
+    <t>AAR-9117</t>
+  </si>
+  <si>
+    <t>AAR-9118</t>
+  </si>
+  <si>
+    <t>AAR-9119</t>
+  </si>
+  <si>
+    <t>AAR-9120</t>
+  </si>
+  <si>
+    <t>AAR-9121</t>
+  </si>
+  <si>
+    <t>AAR-9122</t>
+  </si>
+  <si>
+    <t>AAR-9123</t>
+  </si>
+  <si>
+    <t>AAR-9124</t>
+  </si>
+  <si>
+    <t>AAR-9125</t>
+  </si>
+  <si>
+    <t>AAR-9126</t>
+  </si>
+  <si>
+    <t>AAR-9127</t>
+  </si>
+  <si>
+    <t>AAR-9128</t>
+  </si>
+  <si>
+    <t>AAR-9129</t>
+  </si>
+  <si>
+    <t>AAR-9130</t>
+  </si>
+  <si>
+    <t>AAR-9131</t>
+  </si>
+  <si>
+    <t>AAR-9132</t>
+  </si>
+  <si>
+    <t>AAR-9133</t>
+  </si>
+  <si>
+    <t>AAR-9134</t>
+  </si>
+  <si>
+    <t>AAR-9135</t>
+  </si>
+  <si>
+    <t>AAR-9136</t>
+  </si>
+  <si>
+    <t>AAR-9137</t>
+  </si>
+  <si>
+    <t>AAR-9138</t>
+  </si>
+  <si>
+    <t>AAR-9139</t>
+  </si>
+  <si>
+    <t>AAR-9140</t>
+  </si>
+  <si>
+    <t>AAR-9141</t>
+  </si>
+  <si>
+    <t>AAR-9142</t>
+  </si>
+  <si>
+    <t>AAR-9143</t>
+  </si>
+  <si>
+    <t>AAR-9144</t>
+  </si>
+  <si>
+    <t>AAR-9145</t>
+  </si>
+  <si>
+    <t>AAR-9146</t>
+  </si>
+  <si>
+    <t>AAR-9147</t>
+  </si>
+  <si>
+    <t>AAR-9148</t>
+  </si>
+  <si>
+    <t>AAR-9149</t>
+  </si>
+  <si>
+    <t>AAR-9150</t>
+  </si>
+  <si>
+    <t>AAR-9151</t>
+  </si>
+  <si>
+    <t>AAR-9152</t>
+  </si>
+  <si>
+    <t>AAR-9153</t>
+  </si>
+  <si>
+    <t>AAR-9154</t>
+  </si>
+  <si>
+    <t>AAR-9155</t>
+  </si>
+  <si>
+    <t>AAR-9156</t>
+  </si>
+  <si>
+    <t>AAR-9157</t>
+  </si>
+  <si>
+    <t>AAR-9158</t>
+  </si>
+  <si>
+    <t>AAR-9159</t>
+  </si>
+  <si>
+    <t>AAR-9160</t>
+  </si>
+  <si>
+    <t>AAR-9161</t>
+  </si>
+  <si>
+    <t>AAR-9162</t>
+  </si>
+  <si>
+    <t>AAR-9163</t>
+  </si>
+  <si>
+    <t>AAR-9164</t>
+  </si>
+  <si>
+    <t>AAR-9165</t>
+  </si>
+  <si>
+    <t>AAR-9166</t>
+  </si>
+  <si>
+    <t>AAR-9167</t>
+  </si>
+  <si>
+    <t>AAR-9168</t>
+  </si>
+  <si>
+    <t>AAR-9169</t>
+  </si>
+  <si>
+    <t>AAR-9170</t>
+  </si>
+  <si>
+    <t>AAR-9171</t>
+  </si>
+  <si>
+    <t>AAR-9172</t>
+  </si>
+  <si>
+    <t>AAR-9173</t>
+  </si>
+  <si>
+    <t>AAR-9174</t>
+  </si>
+  <si>
+    <t>AAR-9175</t>
+  </si>
+  <si>
+    <t>AAR-9176</t>
+  </si>
+  <si>
+    <t>AAR-9177</t>
+  </si>
+  <si>
+    <t>AAR-9178</t>
+  </si>
+  <si>
+    <t>AAR-9179</t>
+  </si>
+  <si>
+    <t>AAR-9180</t>
+  </si>
+  <si>
+    <t>AAR-9181</t>
+  </si>
+  <si>
+    <t>AAR-9182</t>
+  </si>
+  <si>
+    <t>AAR-9183</t>
+  </si>
+  <si>
+    <t>AAR-9184</t>
+  </si>
+  <si>
+    <t>AAR-9185</t>
+  </si>
+  <si>
+    <t>AAR-9186</t>
+  </si>
+  <si>
+    <t>AAR-9187</t>
+  </si>
+  <si>
+    <t>AAR-9188</t>
+  </si>
+  <si>
+    <t>AAR-9189</t>
+  </si>
+  <si>
+    <t>AAR-9190</t>
+  </si>
+  <si>
+    <t>AAR-9191</t>
+  </si>
+  <si>
+    <t>AAR-9192</t>
+  </si>
+  <si>
+    <t>AAR-9193</t>
+  </si>
+  <si>
+    <t>AAR-9194</t>
+  </si>
+  <si>
+    <t>AAR-9195</t>
+  </si>
+  <si>
+    <t>AAR-9196</t>
+  </si>
+  <si>
+    <t>AAR-9197</t>
+  </si>
+  <si>
+    <t>AAR-9198</t>
+  </si>
+  <si>
+    <t>AAR-9199</t>
   </si>
 </sst>
 </file>
@@ -134,7 +2195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -142,6 +2203,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,10 +2521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546AC7F4-C61F-4918-BA56-A29E64692DA7}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E708"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A21"/>
+    <sheetView tabSelected="1" topLeftCell="A696" workbookViewId="0">
+      <selection activeCell="A718" sqref="A718"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,102 +2542,3537 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" s="4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" s="4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>3</v>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A566" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A571" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A576" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A577" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A578" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A579" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A580" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A581" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A583" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A584" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A585" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A586" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A587" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A588" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A589" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A590" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A591" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A593" s="3" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A594" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A595" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A596" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A597" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A598" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A599" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A600" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A601" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A602" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A603" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A604" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A605" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A606" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A607" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A608" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A609" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A610" s="3" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A611" s="3" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A612" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A613" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A614" s="3" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A615" s="3" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A616" s="3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A617" s="3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A618" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A619" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A620" s="3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A621" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A622" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A623" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A624" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A625" s="3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A626" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A627" s="3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A628" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A629" s="3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A630" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A631" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A632" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A633" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A634" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A635" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A636" s="3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A637" s="3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A638" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A639" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A640" s="3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A641" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A642" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A643" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A644" s="3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A645" s="3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A646" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A647" s="3" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A648" s="3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A649" s="3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A650" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A651" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A652" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A653" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A654" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A655" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A656" s="3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A657" s="3" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A658" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A659" s="3" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A660" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A661" s="3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A662" s="3" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A663" s="3" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A664" s="3" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A665" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A666" s="3" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A667" s="3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A668" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A669" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A670" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A671" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A672" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A673" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A674" s="3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A675" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A676" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A677" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A678" s="3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A679" s="3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A680" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A681" s="3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A682" s="3" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A683" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A684" s="3" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A685" s="3" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A686" s="3" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A687" s="3" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A688" s="3" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A689" s="3" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A690" s="3" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A691" s="3" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A692" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A693" s="3" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A694" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A695" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A696" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A697" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A698" s="3" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A699" s="3" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A700" s="3" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A701" s="3" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A702" s="3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A703" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A704" s="3" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A705" s="3" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A706" s="3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A707" s="3" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A708" s="3" t="s">
+        <v>707</v>
       </c>
     </row>
   </sheetData>
